--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29105-d86377-Reviews-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>131</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Arcadia.h84843.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528310128497&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=1e28b858-8374-44b2-83c3-28e1e6894a28&amp;mctc=9&amp;exp_dp=123.4&amp;exp_ts=1528310129182&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="673">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1917 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r591526941-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>29105</t>
+  </si>
+  <si>
+    <t>86377</t>
+  </si>
+  <si>
+    <t>591526941</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Awful place!</t>
+  </si>
+  <si>
+    <t>I reserved a room for my parents who were visiting town for a family event.  From the moment we stepped into the elevator, we noticed how dirty and smelly the hotel was!  My parents noticed that their room was not cleaned after their first night there.  They were told by a cleaning lady that they only clean the rooms once a week, but she would give them clean towels - seriously?!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>I reserved a room for my parents who were visiting town for a family event.  From the moment we stepped into the elevator, we noticed how dirty and smelly the hotel was!  My parents noticed that their room was not cleaned after their first night there.  They were told by a cleaning lady that they only clean the rooms once a week, but she would give them clean towels - seriously?!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r587647418-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>587647418</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location close to shopping and food places. Rooms are clean and spacious and have a mini kitchen with a full size refrigerator cooking utensils are supplied if needed. Patty, Ivana , Irving and staff have made staying here very welcoming. very handicap accessible.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location close to shopping and food places. Rooms are clean and spacious and have a mini kitchen with a full size refrigerator cooking utensils are supplied if needed. Patty, Ivana , Irving and staff have made staying here very welcoming. very handicap accessible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r582735555-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>582735555</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>One of the best ones i've been to!</t>
+  </si>
+  <si>
+    <t>Let me start off by saying, the customer service here is amazing! Unfortunately, my room type that I chose was oversold. Theresa, the front desk agent here, called me and let me know immediately. She went above and beyond to accommodate my reservation, and even went out of her way to already have my dishes in my room prior to arrival. Staff members here are very helpful and friendly. I was always asked hows my stay/room so far. It was very pleasing. My room was a basic king size studio. Bed was comfortable. Room was clean. Property was clean and up kept, and the best of all, it was quiet!! Whenever i'm back in Socal, this will be my go to location!! Thanks to staff and the manager for making my stay so comfortable!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Let me start off by saying, the customer service here is amazing! Unfortunately, my room type that I chose was oversold. Theresa, the front desk agent here, called me and let me know immediately. She went above and beyond to accommodate my reservation, and even went out of her way to already have my dishes in my room prior to arrival. Staff members here are very helpful and friendly. I was always asked hows my stay/room so far. It was very pleasing. My room was a basic king size studio. Bed was comfortable. Room was clean. Property was clean and up kept, and the best of all, it was quiet!! Whenever i'm back in Socal, this will be my go to location!! Thanks to staff and the manager for making my stay so comfortable!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578100424-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>578100424</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Dennis did a great job during our stay , he made our stay very comfortable , we will choose this again. He helped my wife with getting what she needed and went out of his way to accommodate her. I thank him for his service and we are glad to share our thoughts about our stay here.Thank you.Vinod Rai and Seema RaiMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Dennis did a great job during our stay , he made our stay very comfortable , we will choose this again. He helped my wife with getting what she needed and went out of his way to accommodate her. I thank him for his service and we are glad to share our thoughts about our stay here.Thank you.Vinod Rai and Seema RaiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578095978-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>578095978</t>
+  </si>
+  <si>
+    <t>Good service</t>
+  </si>
+  <si>
+    <t>Nice hotel.. nice service by Dennis.. honest.. gentleman.. he is great.. service by Dennis and Angelina is good.. they are doing a great job here.. I appreciate.. thanks to them.. happy with service..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nice hotel.. nice service by Dennis.. honest.. gentleman.. he is great.. service by Dennis and Angelina is good.. they are doing a great job here.. I appreciate.. thanks to them.. happy with service..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578077153-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>578077153</t>
+  </si>
+  <si>
+    <t>Excellent service from Dennis</t>
+  </si>
+  <si>
+    <t>Dennis is great at what he does he is courteous and nice and is there to help you if you need anything no matter how small not to mention he is willing to go the extra mile to help you with any concerns that you may have.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Dennis is great at what he does he is courteous and nice and is there to help you if you need anything no matter how small not to mention he is willing to go the extra mile to help you with any concerns that you may have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r566198758-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>566198758</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Nothing to brag</t>
+  </si>
+  <si>
+    <t>Nothing bad to say about the hotel and nothing to brag about. Hotel is average. Nothing else to say, but writing a review can be hard if the hotel is just okay. The cable sucks and so does the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Nothing bad to say about the hotel and nothing to brag about. Hotel is average. Nothing else to say, but writing a review can be hard if the hotel is just okay. The cable sucks and so does the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r559276717-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>559276717</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>The Closest to living at home</t>
+  </si>
+  <si>
+    <t>this hotel has got to be the closest to actually staying at your own home. i recommend this to anyone who likes the environment. The basketball court court in back is one of the best things that i like. They are pet friendly and never complain about my petMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>this hotel has got to be the closest to actually staying at your own home. i recommend this to anyone who likes the environment. The basketball court court in back is one of the best things that i like. They are pet friendly and never complain about my petMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r553269626-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>553269626</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>DO NOT TRUST THIS HOTEL</t>
+  </si>
+  <si>
+    <t>My wife and I had reservations through Priceline at Extended Stay America - Los Angeles - Arcadia 12/31/17 - 1/2/18 for a trip to the Rose Parade and Rose Bowl.  I called the hotel around 12:00 PM to verify our reservation and to see about the check in time.  We were told the hotel did not do an early check in time and the earliest would be 3:00 PM.  I was told by the hotel that as long as we arrived by midnight our reservation would be upheld. 
+That night we arrived at the hotel at approximately 11:15 PM to check in.  The attendant at the hotel told us "I'm sorry but we overbooked and don't have any available rooms."  She offered no other help than for us to call Booking.com.  She offered no explanation other than that she was actually just the laundry attendant and was told to tell us the hotel had overbooked.  She then told us there actually were available rooms in the hotel but they were not clean and they did not have the staff to clean them.
+Even though the hotel clearly knew this had happened, no attempt was made to contact us prior to our arrival.
+Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in...My wife and I had reservations through Priceline at Extended Stay America - Los Angeles - Arcadia 12/31/17 - 1/2/18 for a trip to the Rose Parade and Rose Bowl.  I called the hotel around 12:00 PM to verify our reservation and to see about the check in time.  We were told the hotel did not do an early check in time and the earliest would be 3:00 PM.  I was told by the hotel that as long as we arrived by midnight our reservation would be upheld. That night we arrived at the hotel at approximately 11:15 PM to check in.  The attendant at the hotel told us "I'm sorry but we overbooked and don't have any available rooms."  She offered no other help than for us to call Booking.com.  She offered no explanation other than that she was actually just the laundry attendant and was told to tell us the hotel had overbooked.  She then told us there actually were available rooms in the hotel but they were not clean and they did not have the staff to clean them.Even though the hotel clearly knew this had happened, no attempt was made to contact us prior to our arrival.Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in Pasadena while all other hotels were also already booked.  I have lost complete faith in this hotel.Also, we have not had our money for this hotel refunded to date.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I had reservations through Priceline at Extended Stay America - Los Angeles - Arcadia 12/31/17 - 1/2/18 for a trip to the Rose Parade and Rose Bowl.  I called the hotel around 12:00 PM to verify our reservation and to see about the check in time.  We were told the hotel did not do an early check in time and the earliest would be 3:00 PM.  I was told by the hotel that as long as we arrived by midnight our reservation would be upheld. 
+That night we arrived at the hotel at approximately 11:15 PM to check in.  The attendant at the hotel told us "I'm sorry but we overbooked and don't have any available rooms."  She offered no other help than for us to call Booking.com.  She offered no explanation other than that she was actually just the laundry attendant and was told to tell us the hotel had overbooked.  She then told us there actually were available rooms in the hotel but they were not clean and they did not have the staff to clean them.
+Even though the hotel clearly knew this had happened, no attempt was made to contact us prior to our arrival.
+Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in...My wife and I had reservations through Priceline at Extended Stay America - Los Angeles - Arcadia 12/31/17 - 1/2/18 for a trip to the Rose Parade and Rose Bowl.  I called the hotel around 12:00 PM to verify our reservation and to see about the check in time.  We were told the hotel did not do an early check in time and the earliest would be 3:00 PM.  I was told by the hotel that as long as we arrived by midnight our reservation would be upheld. That night we arrived at the hotel at approximately 11:15 PM to check in.  The attendant at the hotel told us "I'm sorry but we overbooked and don't have any available rooms."  She offered no other help than for us to call Booking.com.  She offered no explanation other than that she was actually just the laundry attendant and was told to tell us the hotel had overbooked.  She then told us there actually were available rooms in the hotel but they were not clean and they did not have the staff to clean them.Even though the hotel clearly knew this had happened, no attempt was made to contact us prior to our arrival.Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in Pasadena while all other hotels were also already booked.  I have lost complete faith in this hotel.Also, we have not had our money for this hotel refunded to date.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r552495065-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>552495065</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Hotel stay -- sucked</t>
+  </si>
+  <si>
+    <t>It was obvious that housekeeping don't clean the rooms as they should. Found a dead lizard, a  cigarette, or and ants. The refrigerator made noise all night long. Location is right by the freeway, so you hear cars constantly going by. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>It was obvious that housekeeping don't clean the rooms as they should. Found a dead lizard, a  cigarette, or and ants. The refrigerator made noise all night long. Location is right by the freeway, so you hear cars constantly going by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r552307640-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>552307640</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay for New Years Eve</t>
+  </si>
+  <si>
+    <t>We had booked this hotel as we needed lodging overnight near Rose Parade. Upon arrival the we waited  a 1/2 hour for staff to come back to lobby. There was only one person working and she was the one of the only reasons hotel received even 3 stars. She was doing her best under tough circumstances. The hotel was over booked and many patrons were in lobby with room keys not working or room was already occupied. We had to split up our party as we needed two beds and room we booked on Priceline was not available. Rooms are very dated and need refurbishment. Not sure if appliances and bathtub were just stained with age or dirty. The only other reason I kept this rating 3 stars was for quick check out and not much audible room noise from other guests. Would not return. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>We had booked this hotel as we needed lodging overnight near Rose Parade. Upon arrival the we waited  a 1/2 hour for staff to come back to lobby. There was only one person working and she was the one of the only reasons hotel received even 3 stars. She was doing her best under tough circumstances. The hotel was over booked and many patrons were in lobby with room keys not working or room was already occupied. We had to split up our party as we needed two beds and room we booked on Priceline was not available. Rooms are very dated and need refurbishment. Not sure if appliances and bathtub were just stained with age or dirty. The only other reason I kept this rating 3 stars was for quick check out and not much audible room noise from other guests. Would not return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r544488876-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>544488876</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Old and dirty room, next to highway, very noisy!</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights. Since I had a baby, we requested a room away from hwy. The front desk was so rude and she told me I would get what I would get, obviously they had some room facing parking lot they just don't want to let them go. The first room had a seriously strong smoke Odor and I came down to complain, she did not show any concern and said 'we are all non smoking rooms, but some people just smoke, what can we do?' Very reluctantly she moved me to another room which was close to Hwy. The sound isolation was so bad that we did not sleep the whole night.Next morning I came down and an assistant manager, Jess, promised to move me to another room away from Hwy, but not until mid noon, so we waited until that time and approach the front desk again. Jess say they do not have any room left and the only option was another room looking at Hwy. Wtf, I felt being tricked and asked for refund for both nights. Luckily I got the money back.The hotel is terribly dirty, cookies in air-con, hair on floor and bad odor. If you value your money stay away please!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded December 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights. Since I had a baby, we requested a room away from hwy. The front desk was so rude and she told me I would get what I would get, obviously they had some room facing parking lot they just don't want to let them go. The first room had a seriously strong smoke Odor and I came down to complain, she did not show any concern and said 'we are all non smoking rooms, but some people just smoke, what can we do?' Very reluctantly she moved me to another room which was close to Hwy. The sound isolation was so bad that we did not sleep the whole night.Next morning I came down and an assistant manager, Jess, promised to move me to another room away from Hwy, but not until mid noon, so we waited until that time and approach the front desk again. Jess say they do not have any room left and the only option was another room looking at Hwy. Wtf, I felt being tricked and asked for refund for both nights. Luckily I got the money back.The hotel is terribly dirty, cookies in air-con, hair on floor and bad odor. If you value your money stay away please!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r535446709-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>535446709</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Old and dingy but quiet</t>
+  </si>
+  <si>
+    <t>The hotel is old and dingy. The kitchenette was old and basic. Wouldn't cook in it. Bathroom was old. Beds were comfortable. Room was quiet. Staff was nice and attentive. Windows opened only about 3 inches, needed to air out the old room. Good to just sleep, but wouldn't stay there if I had to spend any more time in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is old and dingy. The kitchenette was old and basic. Wouldn't cook in it. Bathroom was old. Beds were comfortable. Room was quiet. Staff was nice and attentive. Windows opened only about 3 inches, needed to air out the old room. Good to just sleep, but wouldn't stay there if I had to spend any more time in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r533929102-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>533929102</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Jess made our 2.5 month stay a pleasant experience.  The hotel was perfect for our needs as we were able to keep our animals with us.  It was very nice that there were laundry facilities for our use and would highly recommend the stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Jess made our 2.5 month stay a pleasant experience.  The hotel was perfect for our needs as we were able to keep our animals with us.  It was very nice that there were laundry facilities for our use and would highly recommend the stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r532085993-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>532085993</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice but no ice machine and the ice trays in the freezer were empty.  The room was very nice though.  The front desk was helpful.  We had a reservation for a King room but all they had when we got there was a Queen.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Nice but no ice machine and the ice trays in the freezer were empty.  The room was very nice though.  The front desk was helpful.  We had a reservation for a King room but all they had when we got there was a Queen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r513015126-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>513015126</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America, Los Angeles, Arcadia, Survey.</t>
+  </si>
+  <si>
+    <t>Hopefully,  we will get our ACCESSIBLE room. Tomorrow.  Maybe my brother will be able to be a little independent without the fear accidentally falling while trying to reach for something.  It would be nice to have a little more freedom. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Hopefully,  we will get our ACCESSIBLE room. Tomorrow.  Maybe my brother will be able to be a little independent without the fear accidentally falling while trying to reach for something.  It would be nice to have a little more freedom. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r511988304-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>511988304</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, IT IS A DUMP</t>
+  </si>
+  <si>
+    <t>First of all, the front entrance is dirty, cig butts everywhere, looks like people have urinated or thrown up on the brick walkway. The desk clerks are nice for the most part, but untrained and there is no communication. I specifically asked for hskpg on Sunday and they agreed, and since then have had to argue with them every Sunday, as they say they don't clean rooms on wknds except City of Hope patients. I have to be in the room when they clean as i have had stuff damaged and stolen at 3 other Extended Stay Americas.  My room did not get cleaned 3 different times, and the last time my toilet bowl was getting black when i finally got them to come in and clean the room. Then when i checked the bathroom after she left, she had not touched the sink or faucet.  I have asked several times for the manager's name and they point to the card that has asst mgr name, and he is beyond useless.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>First of all, the front entrance is dirty, cig butts everywhere, looks like people have urinated or thrown up on the brick walkway. The desk clerks are nice for the most part, but untrained and there is no communication. I specifically asked for hskpg on Sunday and they agreed, and since then have had to argue with them every Sunday, as they say they don't clean rooms on wknds except City of Hope patients. I have to be in the room when they clean as i have had stuff damaged and stolen at 3 other Extended Stay Americas.  My room did not get cleaned 3 different times, and the last time my toilet bowl was getting black when i finally got them to come in and clean the room. Then when i checked the bathroom after she left, she had not touched the sink or faucet.  I have asked several times for the manager's name and they point to the card that has asst mgr name, and he is beyond useless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r509469305-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>509469305</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Lots of space in the king suite</t>
+  </si>
+  <si>
+    <t>Great amount of space in the king suite.  Only two roll away beds in the entire hotel, so we had to purchase a spare mattress for one of our kids.  The hotel was nice and paid for the spare mattress since we had to purchase it and they didn't have any additional roll away beds.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Great amount of space in the king suite.  Only two roll away beds in the entire hotel, so we had to purchase a spare mattress for one of our kids.  The hotel was nice and paid for the spare mattress since we had to purchase it and they didn't have any additional roll away beds.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r504885390-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>504885390</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Bad Experience!!!</t>
+  </si>
+  <si>
+    <t>Toilet overflowed in the room.  Water was everywhere!! No maintainance available to fix it!! Had to wait over an hour for a new staff to plunge the toilet herself!!   Poor girl!!  Cant this hotel keep people on duty to fix these things!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Toilet overflowed in the room.  Water was everywhere!! No maintainance available to fix it!! Had to wait over an hour for a new staff to plunge the toilet herself!!   Poor girl!!  Cant this hotel keep people on duty to fix these things!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r502809771-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>502809771</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Nothing Fancy, But Serviceable.</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while our house was getting some upgrades. We chose this because they allow pets, have rooms with kitchens and the location was good. We stayed a week and a half. The pros are that the staff is super friendly and helpful, the room was exactly what we needed for this time, and while being helpful when you need them, the staff otherwise leaves you to yourself, a feature we appreciated. Our dog was welcomed, and there was a nice little grassy area with a basketball court, picnic tables and a barbecue where she could run a little. The down side of this facility is that it is right up against the busy freeway, and the no-man's land between the property fence and the freeway appears to be a homeless encampment. All in all, though, we were very comfortable. Comfortable bed, good table and chairs, lights in all the right places, plenty of outlets. Great shower. We ended up using our hotspots on our phones for internet, as the Wi-Fi provided for free is not secure. No laundry service, but coin-operated laundry on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while our house was getting some upgrades. We chose this because they allow pets, have rooms with kitchens and the location was good. We stayed a week and a half. The pros are that the staff is super friendly and helpful, the room was exactly what we needed for this time, and while being helpful when you need them, the staff otherwise leaves you to yourself, a feature we appreciated. Our dog was welcomed, and there was a nice little grassy area with a basketball court, picnic tables and a barbecue where she could run a little. The down side of this facility is that it is right up against the busy freeway, and the no-man's land between the property fence and the freeway appears to be a homeless encampment. All in all, though, we were very comfortable. Comfortable bed, good table and chairs, lights in all the right places, plenty of outlets. Great shower. We ended up using our hotspots on our phones for internet, as the Wi-Fi provided for free is not secure. No laundry service, but coin-operated laundry on site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r502176314-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>502176314</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>5+ Months on EPP plan :  house keeping responsiveness needs improvement</t>
+  </si>
+  <si>
+    <t>JPL intern on housing stipend stayed here 1/19 to 6/23 on a Tiered rate structure. For 99 nights or more rate was $59 and then incremented to $67 for a few weeks. Rooms are suppose to be cleaned once per week under EPP program
+Pros:  Proximity to JPL; close to light rail system; onsite parking; initial tier rates within housing stipend; good  alternative to airbnb room share in the pasadena area; hotels willingness to renegotiate EPP rates for part of stay.
+Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to...JPL intern on housing stipend stayed here 1/19 to 6/23 on a Tiered rate structure. For 99 nights or more rate was $59 and then incremented to $67 for a few weeks. Rooms are suppose to be cleaned once per week under EPP programPros:  Proximity to JPL; close to light rail system; onsite parking; initial tier rates within housing stipend; good  alternative to airbnb room share in the pasadena area; hotels willingness to renegotiate EPP rates for part of stay.Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to use your hotspot for any internet connectivity.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>JPL intern on housing stipend stayed here 1/19 to 6/23 on a Tiered rate structure. For 99 nights or more rate was $59 and then incremented to $67 for a few weeks. Rooms are suppose to be cleaned once per week under EPP program
+Pros:  Proximity to JPL; close to light rail system; onsite parking; initial tier rates within housing stipend; good  alternative to airbnb room share in the pasadena area; hotels willingness to renegotiate EPP rates for part of stay.
+Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to...JPL intern on housing stipend stayed here 1/19 to 6/23 on a Tiered rate structure. For 99 nights or more rate was $59 and then incremented to $67 for a few weeks. Rooms are suppose to be cleaned once per week under EPP programPros:  Proximity to JPL; close to light rail system; onsite parking; initial tier rates within housing stipend; good  alternative to airbnb room share in the pasadena area; hotels willingness to renegotiate EPP rates for part of stay.Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to use your hotspot for any internet connectivity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r497730400-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>497730400</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Bad check in</t>
+  </si>
+  <si>
+    <t>The clerk at this hotel refused to allow me to check in with my bird in spite of a call the night before when I was told by night staff I would be allowed to check in with my pet.   She rather unapologetically said this was the hotel had a policy against "exotic pets" and showed me this policy after she placed several calls without success to supervisors and made a judgement call on her own.  Upon showing me the policy it indeed said that "exotic pets" were excluded, however it did not specify that a bird would fall into this category.  I did argue that an exotic pet is something like a python or an iguana, and not a small bird but she refused to consider it saying her hands were tied by policy.  Which I found was not entirely true and was more a matter of her interpretation of the very vague policy since I went down the street to the Monrovia location (confusingly just a block from the Arcadia location) and was able to check in with no problems whatsoever. 
+My review of the Monrovia location which is up separately would have been a 5 star had it not been for this experience.  Likewise this review would have been a 1 star had it not been for the polite reception I received from the Monrovia location. 
+Extended Stay need to clarify their policies regarding this issue since...The clerk at this hotel refused to allow me to check in with my bird in spite of a call the night before when I was told by night staff I would be allowed to check in with my pet.   She rather unapologetically said this was the hotel had a policy against "exotic pets" and showed me this policy after she placed several calls without success to supervisors and made a judgement call on her own.  Upon showing me the policy it indeed said that "exotic pets" were excluded, however it did not specify that a bird would fall into this category.  I did argue that an exotic pet is something like a python or an iguana, and not a small bird but she refused to consider it saying her hands were tied by policy.  Which I found was not entirely true and was more a matter of her interpretation of the very vague policy since I went down the street to the Monrovia location (confusingly just a block from the Arcadia location) and was able to check in with no problems whatsoever. My review of the Monrovia location which is up separately would have been a 5 star had it not been for this experience.  Likewise this review would have been a 1 star had it not been for the polite reception I received from the Monrovia location. Extended Stay need to clarify their policies regarding this issue since it affects clients who just want to check in for their stay.  Additionally,  I think some customer service training would be in order for the staff at the Arcadia location.  My frustration with the hotel only was exacerbated by her unhelpful and unapologetic attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>The clerk at this hotel refused to allow me to check in with my bird in spite of a call the night before when I was told by night staff I would be allowed to check in with my pet.   She rather unapologetically said this was the hotel had a policy against "exotic pets" and showed me this policy after she placed several calls without success to supervisors and made a judgement call on her own.  Upon showing me the policy it indeed said that "exotic pets" were excluded, however it did not specify that a bird would fall into this category.  I did argue that an exotic pet is something like a python or an iguana, and not a small bird but she refused to consider it saying her hands were tied by policy.  Which I found was not entirely true and was more a matter of her interpretation of the very vague policy since I went down the street to the Monrovia location (confusingly just a block from the Arcadia location) and was able to check in with no problems whatsoever. 
+My review of the Monrovia location which is up separately would have been a 5 star had it not been for this experience.  Likewise this review would have been a 1 star had it not been for the polite reception I received from the Monrovia location. 
+Extended Stay need to clarify their policies regarding this issue since...The clerk at this hotel refused to allow me to check in with my bird in spite of a call the night before when I was told by night staff I would be allowed to check in with my pet.   She rather unapologetically said this was the hotel had a policy against "exotic pets" and showed me this policy after she placed several calls without success to supervisors and made a judgement call on her own.  Upon showing me the policy it indeed said that "exotic pets" were excluded, however it did not specify that a bird would fall into this category.  I did argue that an exotic pet is something like a python or an iguana, and not a small bird but she refused to consider it saying her hands were tied by policy.  Which I found was not entirely true and was more a matter of her interpretation of the very vague policy since I went down the street to the Monrovia location (confusingly just a block from the Arcadia location) and was able to check in with no problems whatsoever. My review of the Monrovia location which is up separately would have been a 5 star had it not been for this experience.  Likewise this review would have been a 1 star had it not been for the polite reception I received from the Monrovia location. Extended Stay need to clarify their policies regarding this issue since it affects clients who just want to check in for their stay.  Additionally,  I think some customer service training would be in order for the staff at the Arcadia location.  My frustration with the hotel only was exacerbated by her unhelpful and unapologetic attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r495389382-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>495389382</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>You BARELY get what you pay for</t>
+  </si>
+  <si>
+    <t>There were 8 of us tying to stay in the same hotel for the week. My friends and I made our reservation and got our suite but my family's reservation apparently "didn't exist" so half of my family had to stay far away and split up the group. We were never told what dishes/appliances came with our stay so we had to call down one by one to ask if we could have specific items. We needed a toaster and when it came it was broken! We called and they said they had no more left to give out. We called down another time and asked for dishes and she said it would take 20 min to sanitize. A hour later we called down about the dishes and she said we had to come get them ourselves! There was 4 of us in he room but she only gave us 2 plates and said that's all they had left. The pillows smelled soiled. Housekeeping NEVER came to clean our room and when we asked about it they had no resoultion or suggestion. We had to go to the front desk for towels, toilet tissue and soap!!!! At check out they tried to add on extra fee's that he claimed we never paid even though we paid in cash at check in for everything! Basically this hotel didn't have enough items for everyone to use at once and no customer service. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>There were 8 of us tying to stay in the same hotel for the week. My friends and I made our reservation and got our suite but my family's reservation apparently "didn't exist" so half of my family had to stay far away and split up the group. We were never told what dishes/appliances came with our stay so we had to call down one by one to ask if we could have specific items. We needed a toaster and when it came it was broken! We called and they said they had no more left to give out. We called down another time and asked for dishes and she said it would take 20 min to sanitize. A hour later we called down about the dishes and she said we had to come get them ourselves! There was 4 of us in he room but she only gave us 2 plates and said that's all they had left. The pillows smelled soiled. Housekeeping NEVER came to clean our room and when we asked about it they had no resoultion or suggestion. We had to go to the front desk for towels, toilet tissue and soap!!!! At check out they tried to add on extra fee's that he claimed we never paid even though we paid in cash at check in for everything! Basically this hotel didn't have enough items for everyone to use at once and no customer service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r494445734-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>494445734</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay ever</t>
+  </si>
+  <si>
+    <t>I was very disappointed in the hotel. It appears that some of the guest actually reside in this hotel. Dishes remained in the hallway for 3 days from a guest next door to our room. My husband had to ask the front desk twice to have the dishes removed. The telephone and the lights above the beds did not work.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>I was very disappointed in the hotel. It appears that some of the guest actually reside in this hotel. Dishes remained in the hallway for 3 days from a guest next door to our room. My husband had to ask the front desk twice to have the dishes removed. The telephone and the lights above the beds did not work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r467276003-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>467276003</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Stop over</t>
+  </si>
+  <si>
+    <t>Room was smelly and grossly dirty. The refrigerator door dirty, bathroom vanity had leftover toothpaste on it . The bed pillow case had lipstick on it. The desk chairs were grossly dirty and stained. The room carpet was dirty and stained .No working window locks.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r452906473-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>452906473</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Best Value for Best Price</t>
+  </si>
+  <si>
+    <t>This is my second visit to this hotel.  Be sure to stay at the one in Arcadia on Santa Clara St.  Just two blocks away in Monrovia is another Extended Stay and it is not as nice.  Front desk was great, easy registration and room was clean and impressive with large, great mattress bed, a kitchen, free parking.....  Breakfast is just a grab and go of coffee, tea and a muffin or breakfast bar.  But, the savings from other hotels was well worth staying here.  You had a kitchen if you wanted to cook something.  Great location near the freeway without the noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r452062974-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>452062974</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>There are better options</t>
+  </si>
+  <si>
+    <t>We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the...We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the $200+ we spent for the night.  But with so few choices due to the booking.com error, it met a need the night before we got to watch our son march in the parade!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the...We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the $200+ we spent for the night.  But with so few choices due to the booking.com error, it met a need the night before we got to watch our son march in the parade!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r448919828-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>448919828</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Staying in town for the Rose Bowl.  Booked through booking.com.  When we arrived they didn't have our reservation- but somehow they had our home address(?).  We need 2 double beds, they had an "emergency room" with a king.  There were 4 of us.  Had to take it or sleep in the car.  Booking.com had confirmation that they sent our reservation and Extended Stay blamed booking.com.  No cots, elevator broken, kitchen had no utensils, vending machine broken, 1 tiny shampoo, no tissues, dishes laying the hallway.  Surprise, surprise - upon checkout another guest trying to check in was having the same issue with a Booking.com reservation.  Pass this hotel as quickly as you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying in town for the Rose Bowl.  Booked through booking.com.  When we arrived they didn't have our reservation- but somehow they had our home address(?).  We need 2 double beds, they had an "emergency room" with a king.  There were 4 of us.  Had to take it or sleep in the car.  Booking.com had confirmation that they sent our reservation and Extended Stay blamed booking.com.  No cots, elevator broken, kitchen had no utensils, vending machine broken, 1 tiny shampoo, no tissues, dishes laying the hallway.  Surprise, surprise - upon checkout another guest trying to check in was having the same issue with a Booking.com reservation.  Pass this hotel as quickly as you can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r446656786-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>446656786</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>13 week stay</t>
+  </si>
+  <si>
+    <t>Location was great, convenient to many things.  Many updates are needed to rooms such as the bathrooms needing updates regarding fixtures and sink.  Rooms are dark but comfortable, sheets were hard and rough.  The rooms themselves need make overs.  Other than that no problems with noise or animals.  It needs a business center, yet the staff had no problem printing stuff if needed.  It could use a "gym" or a pool on site as well.  Staff very pleasant and more than accommodating.  Weekly cleaning was fine.   Whole place itself just needs a make over/update.  I would stay again and I recommend the place.  Beware stay away from the Monrovia facility (its right around the corner)  that place sucks.  Don't confuse the two.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Location was great, convenient to many things.  Many updates are needed to rooms such as the bathrooms needing updates regarding fixtures and sink.  Rooms are dark but comfortable, sheets were hard and rough.  The rooms themselves need make overs.  Other than that no problems with noise or animals.  It needs a business center, yet the staff had no problem printing stuff if needed.  It could use a "gym" or a pool on site as well.  Staff very pleasant and more than accommodating.  Weekly cleaning was fine.   Whole place itself just needs a make over/update.  I would stay again and I recommend the place.  Beware stay away from the Monrovia facility (its right around the corner)  that place sucks.  Don't confuse the two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r443343512-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>443343512</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>October Visit</t>
+  </si>
+  <si>
+    <t>Got a very good rate on an advanced booking, so felt it was very good value for money.  However, there was some constant noise from the adjacent freeway and the quality of utensils and cooking items was average.  You had to order them from Housekeeping and they brought a large box to your room after checkin. Location was great, just around the corner from lots of restaurants and 5 minutes from the Huntington Gardens.  Stayed 3 nights, but would only stay again if I got a room further from the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Got a very good rate on an advanced booking, so felt it was very good value for money.  However, there was some constant noise from the adjacent freeway and the quality of utensils and cooking items was average.  You had to order them from Housekeeping and they brought a large box to your room after checkin. Location was great, just around the corner from lots of restaurants and 5 minutes from the Huntington Gardens.  Stayed 3 nights, but would only stay again if I got a room further from the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r424226820-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>424226820</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Goos Stay</t>
+  </si>
+  <si>
+    <t>Nice rooms, full kitchen, bed a bit old but ok. Noisy from highway is you open the window. Have on site laundry, cost about $2 only/load. No breakfast but "grab and go" bar. Front desk staff is very helpful. Good free Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Nice rooms, full kitchen, bed a bit old but ok. Noisy from highway is you open the window. Have on site laundry, cost about $2 only/load. No breakfast but "grab and go" bar. Front desk staff is very helpful. Good free Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r421502316-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>421502316</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Nice Studio Hotel in Strategic location</t>
+  </si>
+  <si>
+    <t>The room is good size with functional kitchen. The staffs are friendly and professional. I agree with the prev. review, I would recommend the hotel to dedicate pet-free rooms. We loves pets but it would be nice to accommodate people that has special condition reaction.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>The room is good size with functional kitchen. The staffs are friendly and professional. I agree with the prev. review, I would recommend the hotel to dedicate pet-free rooms. We loves pets but it would be nice to accommodate people that has special condition reaction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r397132838-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>397132838</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Overall a good stay but could be better</t>
+  </si>
+  <si>
+    <t>We were in an accessible room and it was huge and quiet, despite being close to the lobby. The kitchenette was handy and everything worked. The staff were all very courteous and friendly and were very attentive to all our needs. My only issue is while the entire hotel was non-smoking, they do not have a guaranteed pet-free room. The hotel is pet-friendly and we didn't mind that but the room we were in had a lot of pet dander - likely not vacuumed well by housekeeping - this makes it difficult for those with asthma or reacts to pet dander. Perhaps, this is something that can be addressed. Overall, a good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>We were in an accessible room and it was huge and quiet, despite being close to the lobby. The kitchenette was handy and everything worked. The staff were all very courteous and friendly and were very attentive to all our needs. My only issue is while the entire hotel was non-smoking, they do not have a guaranteed pet-free room. The hotel is pet-friendly and we didn't mind that but the room we were in had a lot of pet dander - likely not vacuumed well by housekeeping - this makes it difficult for those with asthma or reacts to pet dander. Perhaps, this is something that can be addressed. Overall, a good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r365274305-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>365274305</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>1st time to california</t>
+  </si>
+  <si>
+    <t>Excellent service from beginning to end. Rooms were clean. Great location. It is super close to the  Highway.  We were about 40 min from LA and Venice Beach . Halj hr from Dianey and 2 hours from San Diego. Would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Excellent service from beginning to end. Rooms were clean. Great location. It is super close to the  Highway.  We were about 40 min from LA and Venice Beach . Halj hr from Dianey and 2 hours from San Diego. Would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r363061151-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>363061151</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Nice rooms, full kitchen but need to rent dishes, bed comfortable, noisy on 3rd floor from highway and from machinery on roof (?) but room to room and floor to floor is quiet.  no breakfast but "grab and go" is ok. front desk staff is very helpful.  good free Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice rooms, full kitchen but need to rent dishes, bed comfortable, noisy on 3rd floor from highway and from machinery on roof (?) but room to room and floor to floor is quiet.  no breakfast but "grab and go" is ok. front desk staff is very helpful.  good free Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r341787615-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>341787615</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Mr. Ken R</t>
+  </si>
+  <si>
+    <t>We usually stay at the Hampton Inn in Arcadia, CA, but their prices just kept going up over the years and I decided to check elsewhere. The Extended Stay offered a very good rate. We loved our one night stay. The rooms were very comfortable and all the staff took very good care of us. Be sure if you book the Extended Stay in Arcadia that you make sure you have the one on Santa Clara Street and not the other Extended Stay hotel which is only a couple of blocks away. I have only stayed at this hotel and can't speak about the other Extended Stay in Arcadia. I would highly recommend the Extended Stay Hotel. We will use it the next time in Arcadia. You do not have to stay for an extended time. We only stayed one night and were treated very well by everyone we met who worked at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>We usually stay at the Hampton Inn in Arcadia, CA, but their prices just kept going up over the years and I decided to check elsewhere. The Extended Stay offered a very good rate. We loved our one night stay. The rooms were very comfortable and all the staff took very good care of us. Be sure if you book the Extended Stay in Arcadia that you make sure you have the one on Santa Clara Street and not the other Extended Stay hotel which is only a couple of blocks away. I have only stayed at this hotel and can't speak about the other Extended Stay in Arcadia. I would highly recommend the Extended Stay Hotel. We will use it the next time in Arcadia. You do not have to stay for an extended time. We only stayed one night and were treated very well by everyone we met who worked at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r326172611-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>326172611</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Basic room, good value</t>
+  </si>
+  <si>
+    <t>What I liked:Clean kitchen, bathroom and room.Morning coffee in the lobby was really good.  Also, the continental breakfast was good for something quick or to take on the go.  Apples, bananas, instant oatmeal, granola bars, muffins, coffee, tea, hot chocolate....Front desk people were very nice.Seemed to be lots of parking in October.  Stalls were large enough for a big SUV.What I didn't like:There were no hangers to hang your clothes.There was no hair dryer in the bathroom.The shower curtain smelled a musty.Wifi was a little slow at times, but it was free.The toaster did not work.  I didn't bother asking for a replacement.Not sure why I expected some "starter" coffee packets in the room, but there weren't any.  But, the coffee in the lobby was really good.In general, this is a basic, budget, no frills room equipped with a kitchen.  The furniture and ironing board were a little run-down, but if you are looking for somewhere to just lay your head down for a night or two, this is a place is a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>What I liked:Clean kitchen, bathroom and room.Morning coffee in the lobby was really good.  Also, the continental breakfast was good for something quick or to take on the go.  Apples, bananas, instant oatmeal, granola bars, muffins, coffee, tea, hot chocolate....Front desk people were very nice.Seemed to be lots of parking in October.  Stalls were large enough for a big SUV.What I didn't like:There were no hangers to hang your clothes.There was no hair dryer in the bathroom.The shower curtain smelled a musty.Wifi was a little slow at times, but it was free.The toaster did not work.  I didn't bother asking for a replacement.Not sure why I expected some "starter" coffee packets in the room, but there weren't any.  But, the coffee in the lobby was really good.In general, this is a basic, budget, no frills room equipped with a kitchen.  The furniture and ironing board were a little run-down, but if you are looking for somewhere to just lay your head down for a night or two, this is a place is a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r320212773-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>320212773</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great last minute deal</t>
+  </si>
+  <si>
+    <t>I booked this place sight unseen at the last minute, needing some place cheap for 1 night.  When I exited the freeway, I got confused when my GPS directed me past an Extended Stay America.  There are 2, a couple of blocks apart.  When I checked in, I asked for a room away from the freeway, something I always do.  The desk clerk said to sit tight and he'd check if the room was ready.  When he came back, he said my 2nd floor room was ready. This was real service!  He recommended several restaurants within a few blocks.  When I arrived at my room, it was clean &amp; well appointed.  I addition to a full kitchen, it had 2 desks and a comfortable lounge chair.  Everything worked; lights, TV, WiFi, frig, shower.  I also heard no freeway noise.  What more could I ask for.  The next morning, I went down to my car.  In the lobby was a very nice continental breakfast.  I was very happy with my stay, and have already recommended it to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this place sight unseen at the last minute, needing some place cheap for 1 night.  When I exited the freeway, I got confused when my GPS directed me past an Extended Stay America.  There are 2, a couple of blocks apart.  When I checked in, I asked for a room away from the freeway, something I always do.  The desk clerk said to sit tight and he'd check if the room was ready.  When he came back, he said my 2nd floor room was ready. This was real service!  He recommended several restaurants within a few blocks.  When I arrived at my room, it was clean &amp; well appointed.  I addition to a full kitchen, it had 2 desks and a comfortable lounge chair.  Everything worked; lights, TV, WiFi, frig, shower.  I also heard no freeway noise.  What more could I ask for.  The next morning, I went down to my car.  In the lobby was a very nice continental breakfast.  I was very happy with my stay, and have already recommended it to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r318418237-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>318418237</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Close to freeway but quiet</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to the fantastic ease on and off the 210 freeway.  It was clean, comfortable and the staff was very friendly.  There was plenty of free parking available and I even noticed an area for pets to relieve themselves, which I thought was very nice due to the fact that so many people travel with their pets.  Don't shy away from this hotel because it is close to a busy freeway.  Our room backed up to the freeway and the noise was extremely minimal...no problem sleeping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r286202367-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>286202367</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Rooms are always clean and the staff is always friendly!</t>
+  </si>
+  <si>
+    <t>We've stayed here 4 or 5 times in the last 12 months and have never been disappointed!  The rooms are very basic but also very clean.  A full fridge and microwave make all the difference in convenience and comfort.  In the morning, you can go down and get a cup of very good coffee--no need to search for an overpriced cup at Starbucks!  One tip:  bring your own shampoo and conditioner.  Only soap is provided.  Sometimes the front desk will have shampoo, but they tend to run out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>We've stayed here 4 or 5 times in the last 12 months and have never been disappointed!  The rooms are very basic but also very clean.  A full fridge and microwave make all the difference in convenience and comfort.  In the morning, you can go down and get a cup of very good coffee--no need to search for an overpriced cup at Starbucks!  One tip:  bring your own shampoo and conditioner.  Only soap is provided.  Sometimes the front desk will have shampoo, but they tend to run out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r283383680-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>283383680</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable!</t>
+  </si>
+  <si>
+    <t>At the last minute, I needed a room to stay.  I had heard many good things from co-workers and friends about this hotel.  I booked my room online and then I called to see if I could have an earlier check in as I was so exhausted from my long drive.  The front desk immediately tried to see what she could do to accomodate me. Within minutes they advised I could check in now.  I was so happy!  I received amazing customer service from Kelly.  She was extremely helpful and my husband and I can't thank her enough!  The room has tons of space to move around and is very clean and comfortable.  My husband and I already have plans to return!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>At the last minute, I needed a room to stay.  I had heard many good things from co-workers and friends about this hotel.  I booked my room online and then I called to see if I could have an earlier check in as I was so exhausted from my long drive.  The front desk immediately tried to see what she could do to accomodate me. Within minutes they advised I could check in now.  I was so happy!  I received amazing customer service from Kelly.  She was extremely helpful and my husband and I can't thank her enough!  The room has tons of space to move around and is very clean and comfortable.  My husband and I already have plans to return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r277660634-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>277660634</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Need more pride</t>
+  </si>
+  <si>
+    <t>Second time in three weeks had to request they replace the fridge. The first one smelled like baby powder,disgusting. They just stop working and all the food has to be thrown away. The bathrooms have no air venting in or out. Staff is very nice. I really dont get these places they bring in alot of money and penny pinch on everything. Should have more pride in thier Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Second time in three weeks had to request they replace the fridge. The first one smelled like baby powder,disgusting. They just stop working and all the food has to be thrown away. The bathrooms have no air venting in or out. Staff is very nice. I really dont get these places they bring in alot of money and penny pinch on everything. Should have more pride in thier Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r264695036-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>264695036</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Not all that good</t>
+  </si>
+  <si>
+    <t>Stayed here because it accepted pets and we brought out dogs with us.  The customer service was very good.  The toilet in the room had to be plunged several times during our three day stay.  There was a strange smell when entering the room.  We also had our doxie get kicked out of the hotel for barking during the day.  That caused an extra expense that we did not anticipate.  The rules state that quiet time is from 10 pm through 8 am.  My dog was completely quiet and sleeping with us during that time.  No where does it state that barking is not allowed, yet we still could not keep him there.  All in all, it was an okay stay.  Not the greatest hotel but not the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Stayed here because it accepted pets and we brought out dogs with us.  The customer service was very good.  The toilet in the room had to be plunged several times during our three day stay.  There was a strange smell when entering the room.  We also had our doxie get kicked out of the hotel for barking during the day.  That caused an extra expense that we did not anticipate.  The rules state that quiet time is from 10 pm through 8 am.  My dog was completely quiet and sleeping with us during that time.  No where does it state that barking is not allowed, yet we still could not keep him there.  All in all, it was an okay stay.  Not the greatest hotel but not the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r260253870-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>260253870</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Not a Good Choice</t>
+  </si>
+  <si>
+    <t>Upon arrival I inspected my room, the carpet did not looked vacuumed, the toilet seat looked like it had dried pee on it, and there was a "stinky surprise" in the toilet. There was also an orange peel in the kitchen trash from the previous guest. I have been here 1 week, and the staff here is ok. There are only 2-3 front desk people that are on top of things. Their breakfast is so basic, and most days they are out of oatmeal. They are even out of sugar. Housekeeping is only supposed to service your room 1x/week, but I came back to my room tonight to find that it was never cleaned. I just called the front desk to report this, and they the girl on the phone just said "okay...........(long pause) I will put you on the list for tomorrow" I gave her my room number and hopefully it will actually get cleaned. I worked in the hotel industry for almost 13 years, and the way she handled the situation was so inadequate &amp; unpleasant (Hence the reason for this review). Not even an apology from her! She even said to make sure there is not a do not disturb sign on the door tomorrow. When I said that there wasn't one on it today, she said "oh, I'm not making excuses, I don't know what happened, I wasn't here" COME ON!!!! Are you kidding me?!?!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Upon arrival I inspected my room, the carpet did not looked vacuumed, the toilet seat looked like it had dried pee on it, and there was a "stinky surprise" in the toilet. There was also an orange peel in the kitchen trash from the previous guest. I have been here 1 week, and the staff here is ok. There are only 2-3 front desk people that are on top of things. Their breakfast is so basic, and most days they are out of oatmeal. They are even out of sugar. Housekeeping is only supposed to service your room 1x/week, but I came back to my room tonight to find that it was never cleaned. I just called the front desk to report this, and they the girl on the phone just said "okay...........(long pause) I will put you on the list for tomorrow" I gave her my room number and hopefully it will actually get cleaned. I worked in the hotel industry for almost 13 years, and the way she handled the situation was so inadequate &amp; unpleasant (Hence the reason for this review). Not even an apology from her! She even said to make sure there is not a do not disturb sign on the door tomorrow. When I said that there wasn't one on it today, she said "oh, I'm not making excuses, I don't know what happened, I wasn't here" COME ON!!!! Are you kidding me?!?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r259328473-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>259328473</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Great Customer service</t>
+  </si>
+  <si>
+    <t>Before I got to my room I was impressed by Jonathan at the front desk. He is friendly and knowledgeable. He patiently answer all of my questions with clear answers. The room was quality was better than I expected and the price was good. I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Before I got to my room I was impressed by Jonathan at the front desk. He is friendly and knowledgeable. He patiently answer all of my questions with clear answers. The room was quality was better than I expected and the price was good. I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r245690696-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>245690696</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>She said what?!!??</t>
+  </si>
+  <si>
+    <t>Ok I'm writing this review and I barely just arrived here at the Extended Stay in Arcadia, the one that is on Santa Clara not the one that's on 5th st. which is literally around the corner. The reason I'm writing this review so soon even before I have checked out is because of the unbelievably great A++++++ super friendly helpful customer service I have just been given by the front desk associate by the name of ROSA.  Let me tell you exactly why I feel so overwhelmingly satisfied about how I was treated today at check-in...
+Oh BTW I frequently stay at the extended stay which is literally just down the street from where I live to relax every so often and just have some time off to myself, so I know how things usually go and the procedures of how check-in usually is, so i was expecting the usual steps :
+Your last name sir, itinerary, credit card you paid with and please sign here, thanks here is your key your room is so and so and its floor yadiyada..
+Ok so nothing is wrong with that and I have no complaint over the usual but it's such a great feeling being welcomed and treated with a more concerning warm welcome which I have received today by I would say the NICEST and most HOSPITABLE front desk associate her name was Rosa. 
+It's honestly the simplest things that...Ok I'm writing this review and I barely just arrived here at the Extended Stay in Arcadia, the one that is on Santa Clara not the one that's on 5th st. which is literally around the corner. The reason I'm writing this review so soon even before I have checked out is because of the unbelievably great A++++++ super friendly helpful customer service I have just been given by the front desk associate by the name of ROSA.  Let me tell you exactly why I feel so overwhelmingly satisfied about how I was treated today at check-in...Oh BTW I frequently stay at the extended stay which is literally just down the street from where I live to relax every so often and just have some time off to myself, so I know how things usually go and the procedures of how check-in usually is, so i was expecting the usual steps :Your last name sir, itinerary, credit card you paid with and please sign here, thanks here is your key your room is so and so and its floor yadiyada..Ok so nothing is wrong with that and I have no complaint over the usual but it's such a great feeling being welcomed and treated with a more concerning warm welcome which I have received today by I would say the NICEST and most HOSPITABLE front desk associate her name was Rosa. It's honestly the simplest things that a person who works in this field can do to make a guest feel at home and comfortable. I was kindly greeted as soon as I entered the front door, but what was different about this was I had been greeted whilst the associate had her hands literally full carrying two crates of pots and pans. Instead of ignoring me while she was busy I was acknowledged. I did offer her my help but she politely said that she was ok. I gave her my last name and my ID and I asked her if it was possible to have a room with two beds just because I figured the extra bed would be nice just so that id have one bed to sleep on and the other to put my things on and just have as an extra. I stood there unable to determine which would best be for me considering that there was a $10 fee so instead of her waiting for me to figure it out she actually offered to show me the rooms to see which was best to my liking. Now talk about customer service. I honestly have stayed multiple times at the extended stay but all my stays have been at the one over on 5th and not once have I ever been treated with such great service as I have received here which is literally just hop skip away. Not only was I able to pick which room I had wanted but since I had checked in a little later than the usual she was nice enough to make my stay much more pleasant offering popcorn and a toothbrush and some other great things that I was not used to. I just would like to say thank you to the front desk agent Rosa and to her Manager which I am sure has something to do with great staff treatment. I must say it says a lot about management and definitely I would come back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Ok I'm writing this review and I barely just arrived here at the Extended Stay in Arcadia, the one that is on Santa Clara not the one that's on 5th st. which is literally around the corner. The reason I'm writing this review so soon even before I have checked out is because of the unbelievably great A++++++ super friendly helpful customer service I have just been given by the front desk associate by the name of ROSA.  Let me tell you exactly why I feel so overwhelmingly satisfied about how I was treated today at check-in...
+Oh BTW I frequently stay at the extended stay which is literally just down the street from where I live to relax every so often and just have some time off to myself, so I know how things usually go and the procedures of how check-in usually is, so i was expecting the usual steps :
+Your last name sir, itinerary, credit card you paid with and please sign here, thanks here is your key your room is so and so and its floor yadiyada..
+Ok so nothing is wrong with that and I have no complaint over the usual but it's such a great feeling being welcomed and treated with a more concerning warm welcome which I have received today by I would say the NICEST and most HOSPITABLE front desk associate her name was Rosa. 
+It's honestly the simplest things that...Ok I'm writing this review and I barely just arrived here at the Extended Stay in Arcadia, the one that is on Santa Clara not the one that's on 5th st. which is literally around the corner. The reason I'm writing this review so soon even before I have checked out is because of the unbelievably great A++++++ super friendly helpful customer service I have just been given by the front desk associate by the name of ROSA.  Let me tell you exactly why I feel so overwhelmingly satisfied about how I was treated today at check-in...Oh BTW I frequently stay at the extended stay which is literally just down the street from where I live to relax every so often and just have some time off to myself, so I know how things usually go and the procedures of how check-in usually is, so i was expecting the usual steps :Your last name sir, itinerary, credit card you paid with and please sign here, thanks here is your key your room is so and so and its floor yadiyada..Ok so nothing is wrong with that and I have no complaint over the usual but it's such a great feeling being welcomed and treated with a more concerning warm welcome which I have received today by I would say the NICEST and most HOSPITABLE front desk associate her name was Rosa. It's honestly the simplest things that a person who works in this field can do to make a guest feel at home and comfortable. I was kindly greeted as soon as I entered the front door, but what was different about this was I had been greeted whilst the associate had her hands literally full carrying two crates of pots and pans. Instead of ignoring me while she was busy I was acknowledged. I did offer her my help but she politely said that she was ok. I gave her my last name and my ID and I asked her if it was possible to have a room with two beds just because I figured the extra bed would be nice just so that id have one bed to sleep on and the other to put my things on and just have as an extra. I stood there unable to determine which would best be for me considering that there was a $10 fee so instead of her waiting for me to figure it out she actually offered to show me the rooms to see which was best to my liking. Now talk about customer service. I honestly have stayed multiple times at the extended stay but all my stays have been at the one over on 5th and not once have I ever been treated with such great service as I have received here which is literally just hop skip away. Not only was I able to pick which room I had wanted but since I had checked in a little later than the usual she was nice enough to make my stay much more pleasant offering popcorn and a toothbrush and some other great things that I was not used to. I just would like to say thank you to the front desk agent Rosa and to her Manager which I am sure has something to do with great staff treatment. I must say it says a lot about management and definitely I would come back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r245658436-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>245658436</t>
+  </si>
+  <si>
+    <t>It's worth it</t>
+  </si>
+  <si>
+    <t>I stayed here for a night and the girl that helped me Check into my room was really helpful, and the morning Manager Rosa who checked me out was very nice and and gave me a late check out! =) id def come back and stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a night and the girl that helped me Check into my room was really helpful, and the morning Manager Rosa who checked me out was very nice and and gave me a late check out! =) id def come back and stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r232296626-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>232296626</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Not up to date</t>
+  </si>
+  <si>
+    <t>Dark dismal dated rooms, next to a freeway so good luck sleeping, minimal breakfast, very few kitchen amenities, some guests seemed to have better pricing than we did, you get what you pay for with the lower price of the room? Front desk staff pleasant. However, we would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Dark dismal dated rooms, next to a freeway so good luck sleeping, minimal breakfast, very few kitchen amenities, some guests seemed to have better pricing than we did, you get what you pay for with the lower price of the room? Front desk staff pleasant. However, we would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r219313878-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>219313878</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Hate the Chain's New Business Plan</t>
+  </si>
+  <si>
+    <t>The rooms have been striped of everything.  I used to go to Extended Stay as they had coffee makers.  Now I'm calling the desk and they are asking that dreaded questions "How many creamer's do you need?"  No thanks.  I will take my own coffee pot to Motel 6 the next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>The rooms have been striped of everything.  I used to go to Extended Stay as they had coffee makers.  Now I'm calling the desk and they are asking that dreaded questions "How many creamer's do you need?"  No thanks.  I will take my own coffee pot to Motel 6 the next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r218580969-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>218580969</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Convenient Housing for AmeriCorps Members</t>
+  </si>
+  <si>
+    <t>I meant to write this review weeks ago, but we stayed in this hotel for a month while we were doing service projects and I miss the friendly staff, especially Rosa who was very sweet and helpful. We could always get whatever we needed from the front desk and we enjoyed our fully stocked kitchen. It's in a nice location that you can walk easily into Arcadia and Monrovia and we always had room for parking. We were treated well, thanks for the great service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>I meant to write this review weeks ago, but we stayed in this hotel for a month while we were doing service projects and I miss the friendly staff, especially Rosa who was very sweet and helpful. We could always get whatever we needed from the front desk and we enjoyed our fully stocked kitchen. It's in a nice location that you can walk easily into Arcadia and Monrovia and we always had room for parking. We were treated well, thanks for the great service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r217469392-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>217469392</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Very unsafe</t>
+  </si>
+  <si>
+    <t>Altercation at midnight in next room with someone being slammed into wall.  Whole wall shook.  Then a man walked out into hallway screaming.  Very scary.  Stayed only one night even though prepaid for two.  No pricetag for safety.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Altercation at midnight in next room with someone being slammed into wall.  Whole wall shook.  Then a man walked out into hallway screaming.  Very scary.  Stayed only one night even though prepaid for two.  No pricetag for safety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r212661313-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>212661313</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>This was our first experience staying in an Extended Stay. Our room was clean and cozy and the kitchen was very economical. It save my family so much money rather than having to eat out. The staff was super friendly and helpful especially Rosa. She went out of her way to make sure we were comfortable and had everything we needed. We will definitely be staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>This was our first experience staying in an Extended Stay. Our room was clean and cozy and the kitchen was very economical. It save my family so much money rather than having to eat out. The staff was super friendly and helpful especially Rosa. She went out of her way to make sure we were comfortable and had everything we needed. We will definitely be staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r210963898-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>210963898</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay and I'm so happy to have the kitchen amenities.</t>
+  </si>
+  <si>
+    <t>I was looking for a place to stay in the Arcadia area and I went on Priceline.com and it was suggested I try here I'm so happy I came and I got to meet Kelli and Martha and Rosa all of whom were very kind and helpful...  I get to see Rosa every morning and she is so sweet!  I look forward to staying here every time I come to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>I was looking for a place to stay in the Arcadia area and I went on Priceline.com and it was suggested I try here I'm so happy I came and I got to meet Kelli and Martha and Rosa all of whom were very kind and helpful...  I get to see Rosa every morning and she is so sweet!  I look forward to staying here every time I come to town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r210600723-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>210600723</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>The room is very comfortable and the staff here is wonderful... specifically Rosa and Wan. They helped me get the best deal when I had to extend my stay from 3 days to 10 days. I love that the place is dog friendly for all types of dogs. My lab whines a little when I leave but it seems like the rooms are very private and the noise doesn't travel much. The only downside is that I was unable to upgrade to a faster internet because they only have the "free" speed at this location. Again, my experience with Rosa and Wan was just so friendly and helpful that it really left a super positive memory for this place in my mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The room is very comfortable and the staff here is wonderful... specifically Rosa and Wan. They helped me get the best deal when I had to extend my stay from 3 days to 10 days. I love that the place is dog friendly for all types of dogs. My lab whines a little when I leave but it seems like the rooms are very private and the noise doesn't travel much. The only downside is that I was unable to upgrade to a faster internet because they only have the "free" speed at this location. Again, my experience with Rosa and Wan was just so friendly and helpful that it really left a super positive memory for this place in my mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r199942744-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>199942744</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>A Hidden Gem in the Greater Los Angeles Area</t>
+  </si>
+  <si>
+    <t>I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before...I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before the morning check out time, but the reception was very kind to check me into a room early, even though I had no prior reservation. Each time I approached the receptionists for help, they always show such pleasure in attending to my requests. On many occasions, they had kindly accommodated my request to store my luggage, when I went camping in the mountain. In all the 3 weeks I have stayed at this hotel, the rooms have always been spotless, and each time the air conditioning and one of the lights would be on, so you would always walk into a lighted room with a comfortable temperature. Checking in at this hotel is always smooth, fast and pleasant. The WiFi is free and works great every time. For those interested in hiking, this is the perfect location to stay at. There are lots of access to mountain trails and camp grounds within a very short distant from the hotel. In fact, I would normally begin my hike from the hotel. REI is only 2 blocks away, for those who need extra gears. The hotel is situated within a 10 minutes walk to downtown Arcadia - a small but very nice area, where you can get all kinds of delicious fine food - Thai, Japanese, American, Italian, Vietnamese, Chinese and more; for those who are less picky about their food, yes, there are many fast food places too - In-and Out Burgers, Mcdonalds and others. Downtown Arcadia is a nice place to shop and there is an Arcadia courtesy bus that will take you to a major mall 10 minutes away. A five minutes drive will take you into Monrovia, where there are more food places and shopping. A 10 minutes drive along Colorado Blvd, towards Occidental College, takes you into Old Town Pasadena, which has lots of nice eating places and places to shop. This hotel is within minutes from the 210 freeway, which gives you quick access to LA and the surrounding area. It takes me a nice 15 minutes drive to Occidental College or, if I prefer a nice quiet drive, I would take Colorado Blvd and will be there in 25 minutes. Along the way, I can stop for food in Old Town Pasadena. My family and I have stayed at many hotels in the Los Angeles area, and I can assure you that, even if you have to drive an extra 15 - 20 minutes, the comfort, welcome and wonderful service you get at this place will more than compensate for it. So,look no further - plus you get to meet Rosa, Kelli, Ashley, Corina and all the wonderful staffs. You always get more than your money's worth at this location. I highly recommend this place to the families who are visiting their children at Occidental college, Pamona and Claremont-Mckenna Colleges.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before...I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before the morning check out time, but the reception was very kind to check me into a room early, even though I had no prior reservation. Each time I approached the receptionists for help, they always show such pleasure in attending to my requests. On many occasions, they had kindly accommodated my request to store my luggage, when I went camping in the mountain. In all the 3 weeks I have stayed at this hotel, the rooms have always been spotless, and each time the air conditioning and one of the lights would be on, so you would always walk into a lighted room with a comfortable temperature. Checking in at this hotel is always smooth, fast and pleasant. The WiFi is free and works great every time. For those interested in hiking, this is the perfect location to stay at. There are lots of access to mountain trails and camp grounds within a very short distant from the hotel. In fact, I would normally begin my hike from the hotel. REI is only 2 blocks away, for those who need extra gears. The hotel is situated within a 10 minutes walk to downtown Arcadia - a small but very nice area, where you can get all kinds of delicious fine food - Thai, Japanese, American, Italian, Vietnamese, Chinese and more; for those who are less picky about their food, yes, there are many fast food places too - In-and Out Burgers, Mcdonalds and others. Downtown Arcadia is a nice place to shop and there is an Arcadia courtesy bus that will take you to a major mall 10 minutes away. A five minutes drive will take you into Monrovia, where there are more food places and shopping. A 10 minutes drive along Colorado Blvd, towards Occidental College, takes you into Old Town Pasadena, which has lots of nice eating places and places to shop. This hotel is within minutes from the 210 freeway, which gives you quick access to LA and the surrounding area. It takes me a nice 15 minutes drive to Occidental College or, if I prefer a nice quiet drive, I would take Colorado Blvd and will be there in 25 minutes. Along the way, I can stop for food in Old Town Pasadena. My family and I have stayed at many hotels in the Los Angeles area, and I can assure you that, even if you have to drive an extra 15 - 20 minutes, the comfort, welcome and wonderful service you get at this place will more than compensate for it. So,look no further - plus you get to meet Rosa, Kelli, Ashley, Corina and all the wonderful staffs. You always get more than your money's worth at this location. I highly recommend this place to the families who are visiting their children at Occidental college, Pamona and Claremont-Mckenna Colleges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r199040960-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>199040960</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>A bit dirty</t>
+  </si>
+  <si>
+    <t>The breakfast was extremely basic (oatmeal packets and chewy granola bars). Coffee was pretty good though.The chairs in the rooms have certainly not been cleaned in a long time.The only other issue I had was that you have to request even basic items at the front desk.Other than these issues, it was a good overall stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2014</t>
+  </si>
+  <si>
+    <t>The breakfast was extremely basic (oatmeal packets and chewy granola bars). Coffee was pretty good though.The chairs in the rooms have certainly not been cleaned in a long time.The only other issue I had was that you have to request even basic items at the front desk.Other than these issues, it was a good overall stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r193444837-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>193444837</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>Richies Business Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Staff! Great newly remodeled rooms! Excellent value!Great location close to the 210 freeway! Everything you need is in the room for a one night or extended stay. I would recommend this hotel to any type traveler.You will not be disappointed! </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r186274858-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>186274858</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Idiots</t>
+  </si>
+  <si>
+    <t>I stayed here solely because my job sent me to this location.  Half of us were split between the two sister properties while on assignment, and boy......did we get the raw end of the deal!  From the time we checked in, only one person knew what was going on.  There was a line at the front desk because there wasn't enough staff on duty.  Apparently, she was searching in the clean pile for wash clothes and towels.  Every day, this was an adventure and they never had enough.  Rosa seemed to be one of the only people on target.  Kelli was the other worker who seemed cheerful as well as helpful.  Unfortunately, Jonathan was not.  Not only, was he lost in terms of checking people in and out, but he never seemed to grasp the concept that he is working customer service.  He used the excuse that he was new and still training.  Unfortunately, another guest explained he has been there for 5 months, so how can he be considered new? David acted as if he didn't want to be there, not willing to lend a hand.  Martha the manager feels she can speak to guests however she feels pushing the blame onto guests in lieu of her untrained idiotic staff.    All-in-all, this place was infested with prostitutes, druggies and children with no respect for others.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I stayed here solely because my job sent me to this location.  Half of us were split between the two sister properties while on assignment, and boy......did we get the raw end of the deal!  From the time we checked in, only one person knew what was going on.  There was a line at the front desk because there wasn't enough staff on duty.  Apparently, she was searching in the clean pile for wash clothes and towels.  Every day, this was an adventure and they never had enough.  Rosa seemed to be one of the only people on target.  Kelli was the other worker who seemed cheerful as well as helpful.  Unfortunately, Jonathan was not.  Not only, was he lost in terms of checking people in and out, but he never seemed to grasp the concept that he is working customer service.  He used the excuse that he was new and still training.  Unfortunately, another guest explained he has been there for 5 months, so how can he be considered new? David acted as if he didn't want to be there, not willing to lend a hand.  Martha the manager feels she can speak to guests however she feels pushing the blame onto guests in lieu of her untrained idiotic staff.    All-in-all, this place was infested with prostitutes, druggies and children with no respect for others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r186188634-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>186188634</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Great Staff but Poor Amenities</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about 3 weeks earlier this year because it is one of the few hotels that offers a full kitchen in this area at a reasonable rate. The only other reason I stayed here was because of its friendly staff who go out of their way to help their guests, especially Rosa, Kelli and Martha. All three of them are highly professional, very helpful and a joy to deal with.  Unfortunately, the hotel is in a bad location and it tries to cater to a lot of low-income people. As a result, it is not unusual to see police officers on the premises every so often. The rooms badly need maintenance. In our room, the air-conditioning unit did not work for days and some of the lights never worked due to electrical problems which were never fixed.  The laundry facilities and the storage area behind the front desk are extremely dirty and are not cleaned for days. But what it lacks in amenities is somewhat made up by the great service, hard work and the spirit of hospitality on the part of the those staff members mentioned above.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about 3 weeks earlier this year because it is one of the few hotels that offers a full kitchen in this area at a reasonable rate. The only other reason I stayed here was because of its friendly staff who go out of their way to help their guests, especially Rosa, Kelli and Martha. All three of them are highly professional, very helpful and a joy to deal with.  Unfortunately, the hotel is in a bad location and it tries to cater to a lot of low-income people. As a result, it is not unusual to see police officers on the premises every so often. The rooms badly need maintenance. In our room, the air-conditioning unit did not work for days and some of the lights never worked due to electrical problems which were never fixed.  The laundry facilities and the storage area behind the front desk are extremely dirty and are not cleaned for days. But what it lacks in amenities is somewhat made up by the great service, hard work and the spirit of hospitality on the part of the those staff members mentioned above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r185702874-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>185702874</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Stayed 3 months and EXTREMELY dissatisfied</t>
+  </si>
+  <si>
+    <t>I believe Extended Stay America has a great concept with their hotels. I appreciate the style, comfort, and ease of use. Unfortunately, this particular one is backed up right against a freeway, crawling with drug addicts, and littered with prostitution. I had a hard time getting a restful nights sleep with the heavy doors slamming constantly and I HAVE A BUSINESS TO RUN!! I realize you get what you pay for but they could at least be a little more selective with who they permit to stay. Also, unless you want to wake up with a tight feeling in your chest, don't stay on the third floor because it's a non-smoker's nightmare. For a working man or family without a home, Extended Stay is a great fit. I would never stay at this particular one ever again though. As far as the employees, they were pleasant to deal with and courteous. Two especially stood out to me. Kelli and Corinna. They were always very friendly and handled every situation in a professional manner.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded November 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2013</t>
+  </si>
+  <si>
+    <t>I believe Extended Stay America has a great concept with their hotels. I appreciate the style, comfort, and ease of use. Unfortunately, this particular one is backed up right against a freeway, crawling with drug addicts, and littered with prostitution. I had a hard time getting a restful nights sleep with the heavy doors slamming constantly and I HAVE A BUSINESS TO RUN!! I realize you get what you pay for but they could at least be a little more selective with who they permit to stay. Also, unless you want to wake up with a tight feeling in your chest, don't stay on the third floor because it's a non-smoker's nightmare. For a working man or family without a home, Extended Stay is a great fit. I would never stay at this particular one ever again though. As far as the employees, they were pleasant to deal with and courteous. Two especially stood out to me. Kelli and Corinna. They were always very friendly and handled every situation in a professional manner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r174908960-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>174908960</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Basics were there</t>
+  </si>
+  <si>
+    <t>Had to stay for a couple of days while my home was fumigated. Prices were reasonable and pet friendly (25 extra a day for my cat).  Beds were comfortable, for hotel beds, room was clean and well kept.  Staff was helpful and accommodating. Would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Had to stay for a couple of days while my home was fumigated. Prices were reasonable and pet friendly (25 extra a day for my cat).  Beds were comfortable, for hotel beds, room was clean and well kept.  Staff was helpful and accommodating. Would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r171432781-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>171432781</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>There are many choices around the area</t>
+  </si>
+  <si>
+    <t>I ended up in this hotel because my company arranged it for me.  When it comes to the Arcadia area near the race track.  There are many places to choose from: Embassy Suites,  Spring Hill Suites, Doubletree hotel, etc etc.  Arcadia is famous to host conferences and in the Spring you have a lot of horse races at Santa Anita Race track so all these places get full really quickly.  I stayed there for two weeks before moving with my friend to the Embassy Suites in Arcadia.  I didnt care for the bed quality, it is next to the freeway it can get noisy. Their breakfast is a joke: bananas and coffee? The kitchen doesnt come with any utensils so pretty much worthless.  I would never come back here againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>I ended up in this hotel because my company arranged it for me.  When it comes to the Arcadia area near the race track.  There are many places to choose from: Embassy Suites,  Spring Hill Suites, Doubletree hotel, etc etc.  Arcadia is famous to host conferences and in the Spring you have a lot of horse races at Santa Anita Race track so all these places get full really quickly.  I stayed there for two weeks before moving with my friend to the Embassy Suites in Arcadia.  I didnt care for the bed quality, it is next to the freeway it can get noisy. Their breakfast is a joke: bananas and coffee? The kitchen doesnt come with any utensils so pretty much worthless.  I would never come back here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r167844678-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>167844678</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Rosa and the staff where very great they make you feel right at home. The room was very clean and well maintained. The hotel in very close to excellent eating establishment and shopping. If you need a place to stay this is a good stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Rosa and the staff where very great they make you feel right at home. The room was very clean and well maintained. The hotel in very close to excellent eating establishment and shopping. If you need a place to stay this is a good stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r161830882-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>161830882</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Staff and an Uplifting Stay</t>
+  </si>
+  <si>
+    <t>I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking...I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking distance to Monrovia's Restaurant Row able to satisfy anyone's palate of desire.  The price is reasonable for this area and is well maintained.  I will definitely stay here again in the near or far future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking...I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking distance to Monrovia's Restaurant Row able to satisfy anyone's palate of desire.  The price is reasonable for this area and is well maintained.  I will definitely stay here again in the near or far future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r158503204-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>158503204</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Hurray for Rosa and Brandon</t>
+  </si>
+  <si>
+    <t>These two are outstanding staff members. They are very welcoming friendly attentive and respond very quickly to any issues. My bed was so comfortable and am enjoying my stay. I also want to mention the housekeeping staff They always smile and say hello. The only issue I have is that not all pet owners are responsible and fail to pick up after their pets. Perhaps a sweep once a day will help those who are responsible not to have to watch out for the mess and smell as they are taking care of their dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>These two are outstanding staff members. They are very welcoming friendly attentive and respond very quickly to any issues. My bed was so comfortable and am enjoying my stay. I also want to mention the housekeeping staff They always smile and say hello. The only issue I have is that not all pet owners are responsible and fail to pick up after their pets. Perhaps a sweep once a day will help those who are responsible not to have to watch out for the mess and smell as they are taking care of their dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r157989230-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>157989230</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Awesome Place to Stay</t>
+  </si>
+  <si>
+    <t>I really loved the accommodations and free WIFI.  Staff was SUPER helpful.  Fermin helped me out big time when I ran out of shaving cream.  He also helped me make change in the middle of the night!  Great service!My room was very spacious and clean.  Came with a first rate refrigerator and stove.  Bed was extremely comfortable.The building is beautiful and the staff in general are friendly and attentive.  I would recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>I really loved the accommodations and free WIFI.  Staff was SUPER helpful.  Fermin helped me out big time when I ran out of shaving cream.  He also helped me make change in the middle of the night!  Great service!My room was very spacious and clean.  Came with a first rate refrigerator and stove.  Bed was extremely comfortable.The building is beautiful and the staff in general are friendly and attentive.  I would recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r154665350-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>154665350</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Bring Your Own Internet Connection...</t>
+  </si>
+  <si>
+    <t>If you are coming for a pleasure trip (and won't be on the Internet), this place is fine...but if you are coming for business and need a good Internet connection at the hotel, better BYO, or go elsewhere. Speedtest.net showed a paltry 0.08 Mbps download speed. I swear I am not making this up.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded March 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2013</t>
+  </si>
+  <si>
+    <t>If you are coming for a pleasure trip (and won't be on the Internet), this place is fine...but if you are coming for business and need a good Internet connection at the hotel, better BYO, or go elsewhere. Speedtest.net showed a paltry 0.08 Mbps download speed. I swear I am not making this up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r152221866-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>152221866</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Best staff ever!</t>
+  </si>
+  <si>
+    <t>Corrine did a great job because she has great communication skills, she listens fully to people when the speak to understand their needs, is very professional and also genuine at the same time. She was responsive to all inquiries and had timely and accurate follow through. She seemed happy when communicating and that is a quality that cannot be taught.There is no doubt that extended STAY AMERICA is a value but I would not expect the level of friendly service that all the staff provides. I would love to know how you train them because they have an enthusiasm that is hard to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Corrine did a great job because she has great communication skills, she listens fully to people when the speak to understand their needs, is very professional and also genuine at the same time. She was responsive to all inquiries and had timely and accurate follow through. She seemed happy when communicating and that is a quality that cannot be taught.There is no doubt that extended STAY AMERICA is a value but I would not expect the level of friendly service that all the staff provides. I would love to know how you train them because they have an enthusiasm that is hard to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r152187331-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>152187331</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Excellent location, friendly, professional and helpful staff. I walked in to a spacious, vibrantly clean room. From check-in to check-out I felt like I was at a home away from home. Was treated with such warmth and respect by the entire staff. Kudos to Management for leading such a great team. I look forward to my next stay and will definitely recommend this hotel to friends and colleagues.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Excellent location, friendly, professional and helpful staff. I walked in to a spacious, vibrantly clean room. From check-in to check-out I felt like I was at a home away from home. Was treated with such warmth and respect by the entire staff. Kudos to Management for leading such a great team. I look forward to my next stay and will definitely recommend this hotel to friends and colleagues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r151130339-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>151130339</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Brandon was a huge help</t>
+  </si>
+  <si>
+    <t>With such a great price you would not expect great service as well. Brandon helped me modify my reservation over the phone in mere seconds and answered a lot of questions too. He was professional and genuine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded February 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2013</t>
+  </si>
+  <si>
+    <t>With such a great price you would not expect great service as well. Brandon helped me modify my reservation over the phone in mere seconds and answered a lot of questions too. He was professional and genuine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r150892770-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>150892770</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay on a budget</t>
+  </si>
+  <si>
+    <t>I have been traveling in and out of the Arcadia area for about three months now and every time I come I stay here.  You simply cant beat the price especially for what you get. Full refrigerator, which is hard to get anywhere! If your looking for five star amenities then don't stay but for the price its great and clean (Around 100).  The staff is outstanding and very helpful.  We usually make all our reservations with Brandon and he is outstanding. Martha the manager is always very pleasant and helpful at check-out. The breakfast is nothing to special but it was completely free and the coffee was surprisingly good.  Great location near many restaurants and bars. Overall Clean and friendly place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been traveling in and out of the Arcadia area for about three months now and every time I come I stay here.  You simply cant beat the price especially for what you get. Full refrigerator, which is hard to get anywhere! If your looking for five star amenities then don't stay but for the price its great and clean (Around 100).  The staff is outstanding and very helpful.  We usually make all our reservations with Brandon and he is outstanding. Martha the manager is always very pleasant and helpful at check-out. The breakfast is nothing to special but it was completely free and the coffee was surprisingly good.  Great location near many restaurants and bars. Overall Clean and friendly place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r149822122-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>149822122</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Would stay again...</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the Extended Stay Arcadia for our long awaited trip to the Breeders Cup 2012.  The location was perfect for us, within walking distance to the track.  The staff was very friendly and helpful, calling cabs for us on numerous occasions and allowing us to check out later than usual due to a late flight.  The room was very comfortable, although it could have used a "deep cleaning."  I was disappointed to learn that this property is booked for the dates of Breeders Cup 2013, and have had to book another hotel in Pasadena.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the Extended Stay Arcadia for our long awaited trip to the Breeders Cup 2012.  The location was perfect for us, within walking distance to the track.  The staff was very friendly and helpful, calling cabs for us on numerous occasions and allowing us to check out later than usual due to a late flight.  The room was very comfortable, although it could have used a "deep cleaning."  I was disappointed to learn that this property is booked for the dates of Breeders Cup 2013, and have had to book another hotel in Pasadena.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r138057906-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>138057906</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about...I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about half an hour and when she was done came and asked me to take a look. The shower was clean and the sink was spotless. I told her that all it needed was a little elbow grease and it didn't need to be replaced. After they cleaned the remainder of the room. On top of that the internet is at a snails pace even at night when most are asleep. I averaged .37Mbps down and .17Mbps up in speed tests. I couldn't even use it for Outlook so I ended up tethering from my phone with 4G. So in closing I would have to say stay away from here. They clean with non-disinfecting dish soap and don't know the meaning of clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2012</t>
+  </si>
+  <si>
+    <t>I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about...I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about half an hour and when she was done came and asked me to take a look. The shower was clean and the sink was spotless. I told her that all it needed was a little elbow grease and it didn't need to be replaced. After they cleaned the remainder of the room. On top of that the internet is at a snails pace even at night when most are asleep. I averaged .37Mbps down and .17Mbps up in speed tests. I couldn't even use it for Outlook so I ended up tethering from my phone with 4G. So in closing I would have to say stay away from here. They clean with non-disinfecting dish soap and don't know the meaning of clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r135495114-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>135495114</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>The hotel is in a great area, near by freeways &amp; restaurants. The staff is very helpful &amp; polite, my family &amp; I have always had a great experience. My pets were welcomed too. Very cozy room, so it is home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>The hotel is in a great area, near by freeways &amp; restaurants. The staff is very helpful &amp; polite, my family &amp; I have always had a great experience. My pets were welcomed too. Very cozy room, so it is home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r135030669-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>135030669</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Great accommodation....very poor Internet</t>
+  </si>
+  <si>
+    <t>This is a great place to stay in perfect location too. My only problem is the Internet access. The speeds are pathetic. I could not sustain a 5 minute skype call any time of day or night any day of the week. Not even on a saturday afternoon when judging by the number of vehicles in the parking lot, most guests were out. I have even tried at 2AM to talk to my family on the other side of the world on Skype and still no success. This calls for improvement and then this would rank as a perfect choice for accommodation in ArcadiaMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, General Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>This is a great place to stay in perfect location too. My only problem is the Internet access. The speeds are pathetic. I could not sustain a 5 minute skype call any time of day or night any day of the week. Not even on a saturday afternoon when judging by the number of vehicles in the parking lot, most guests were out. I have even tried at 2AM to talk to my family on the other side of the world on Skype and still no success. This calls for improvement and then this would rank as a perfect choice for accommodation in ArcadiaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r132133982-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>132133982</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>If it was not the only place left to stay....</t>
+  </si>
+  <si>
+    <t>We were in town visiting a family member that is a patient of the City of Hope Hospital.  It was important that we were able to check in early to get to the hospital and not have to leave all of our luggage in the car.  We were told EARLY check-in was not a problem.  When we arrive at 1pm ... we were informed our room would not be ready until around 4pm... so off to the hospital we went will all our luggage left in the car.... ! 
+Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the...We were in town visiting a family member that is a patient of the City of Hope Hospital.  It was important that we were able to check in early to get to the hospital and not have to leave all of our luggage in the car.  We were told EARLY check-in was not a problem.  When we arrive at 1pm ... we were informed our room would not be ready until around 4pm... so off to the hospital we went will all our luggage left in the car.... ! Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the back entrance was propped open with a rock.   What good is the key pad if your door is left open..... Again, checked if there was any other places within a few miles with rooms, that could sleep safely the kids and I .. that was a NO&gt;... We decided to make the best of it, ... and ask for more towels... which we had to bring back the dirty towels to get  (room service?) .... not once did we see room service.  Although the last day we were awoken by talking and laughing and loud hammering in the hallway ... this went on all morning.  We thought RooM ServicE?  No, they decided to replace the baseboards... It just wasn't a good week for that hotel.... We were happy to pack up say goodbye and head for home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Arcadia, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>We were in town visiting a family member that is a patient of the City of Hope Hospital.  It was important that we were able to check in early to get to the hospital and not have to leave all of our luggage in the car.  We were told EARLY check-in was not a problem.  When we arrive at 1pm ... we were informed our room would not be ready until around 4pm... so off to the hospital we went will all our luggage left in the car.... ! 
+Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the...We were in town visiting a family member that is a patient of the City of Hope Hospital.  It was important that we were able to check in early to get to the hospital and not have to leave all of our luggage in the car.  We were told EARLY check-in was not a problem.  When we arrive at 1pm ... we were informed our room would not be ready until around 4pm... so off to the hospital we went will all our luggage left in the car.... ! Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the back entrance was propped open with a rock.   What good is the key pad if your door is left open..... Again, checked if there was any other places within a few miles with rooms, that could sleep safely the kids and I .. that was a NO&gt;... We decided to make the best of it, ... and ask for more towels... which we had to bring back the dirty towels to get  (room service?) .... not once did we see room service.  Although the last day we were awoken by talking and laughing and loud hammering in the hallway ... this went on all morning.  We thought RooM ServicE?  No, they decided to replace the baseboards... It just wasn't a good week for that hotel.... We were happy to pack up say goodbye and head for home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r131501629-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>131501629</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Could be a great hotel</t>
+  </si>
+  <si>
+    <t>In the midst of a remodel, so some sketchy carpet stains,abundant trash &amp; cigarette butts (for days) in the parking lot and by the entrance. A real shocker was NO SHAMPOO is provided, and NO HAIR DRYER!( I have always considered these staples). There is a toaster, microwave, fridge, sink, dishes &amp; pots &amp; pans and iron/board. The "kitchen" was not yet remodeled, so a big burn mark on counter, and the fridge hummed loudly. Not a lot of attention to detail cleaning, obviously with sticky smudges on nightstand, curly hairs trapped in corners &amp; very dusty lamps--some that didn't work. Another "different" surprise was NO FREE DAILY MAID SERVICE, unless you are there 5 days. (You have to take your towels to the front desk if you want new ones. ). They advertise a "grab &amp; go" breakfast with muffins, but they didn't have muffins the 3 days I was there. On the positive side: the staff were all very nice and helpful. My first "no smoking" room had obviously had smokers, and I had no trouble getting a new room within 10 minutes.I felt safe about the area, and leaving my car in the parking lot.  All in all, it was worth what I paid for it, but I still think it should have had shampoo and a hair dryer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>In the midst of a remodel, so some sketchy carpet stains,abundant trash &amp; cigarette butts (for days) in the parking lot and by the entrance. A real shocker was NO SHAMPOO is provided, and NO HAIR DRYER!( I have always considered these staples). There is a toaster, microwave, fridge, sink, dishes &amp; pots &amp; pans and iron/board. The "kitchen" was not yet remodeled, so a big burn mark on counter, and the fridge hummed loudly. Not a lot of attention to detail cleaning, obviously with sticky smudges on nightstand, curly hairs trapped in corners &amp; very dusty lamps--some that didn't work. Another "different" surprise was NO FREE DAILY MAID SERVICE, unless you are there 5 days. (You have to take your towels to the front desk if you want new ones. ). They advertise a "grab &amp; go" breakfast with muffins, but they didn't have muffins the 3 days I was there. On the positive side: the staff were all very nice and helpful. My first "no smoking" room had obviously had smokers, and I had no trouble getting a new room within 10 minutes.I felt safe about the area, and leaving my car in the parking lot.  All in all, it was worth what I paid for it, but I still think it should have had shampoo and a hair dryer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r130988702-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>130988702</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>OUTSTANDING HOTEL</t>
+  </si>
+  <si>
+    <t>10/10; Extended Stay, 930 S 5th Ave, Monrovia, CA 91016.  Big fan of Extended Stay.  Great value for the dollar.  Outer appearance: Clean and secure.  Service: Outstanding.  Staff bends over backwards to meet your needs!  Room: Free Wi-Fi, Flat panel wide screen TV with Direct TV.  Overall very CLEAN!  Comfy bed.  Furniture in good shape.  Bathroom is clean.  Convenient location and well lit.  Takes military/AAA discounts.  Ask for Stephanie...she will hook you up!!  I will absolutely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>10/10; Extended Stay, 930 S 5th Ave, Monrovia, CA 91016.  Big fan of Extended Stay.  Great value for the dollar.  Outer appearance: Clean and secure.  Service: Outstanding.  Staff bends over backwards to meet your needs!  Room: Free Wi-Fi, Flat panel wide screen TV with Direct TV.  Overall very CLEAN!  Comfy bed.  Furniture in good shape.  Bathroom is clean.  Convenient location and well lit.  Takes military/AAA discounts.  Ask for Stephanie...she will hook you up!!  I will absolutely stay here again!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2559,5150 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>296</v>
+      </c>
+      <c r="X32" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>331</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s">
+        <v>335</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s">
+        <v>344</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>345</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>358</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" t="s">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s">
+        <v>361</v>
+      </c>
+      <c r="L41" t="s">
+        <v>362</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>363</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X41" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>155</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>381</v>
+      </c>
+      <c r="X43" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" t="s">
+        <v>395</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>396</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>397</v>
+      </c>
+      <c r="X45" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+      <c r="K46" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>405</v>
+      </c>
+      <c r="X46" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>408</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47" t="s">
+        <v>410</v>
+      </c>
+      <c r="K47" t="s">
+        <v>411</v>
+      </c>
+      <c r="L47" t="s">
+        <v>412</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>413</v>
+      </c>
+      <c r="X47" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>417</v>
+      </c>
+      <c r="J48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K48" t="s">
+        <v>418</v>
+      </c>
+      <c r="L48" t="s">
+        <v>419</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>413</v>
+      </c>
+      <c r="X48" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49" t="s">
+        <v>425</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>426</v>
+      </c>
+      <c r="X49" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>434</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>435</v>
+      </c>
+      <c r="X50" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>439</v>
+      </c>
+      <c r="J51" t="s">
+        <v>440</v>
+      </c>
+      <c r="K51" t="s">
+        <v>441</v>
+      </c>
+      <c r="L51" t="s">
+        <v>442</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" t="s">
+        <v>449</v>
+      </c>
+      <c r="L52" t="s">
+        <v>450</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>451</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>452</v>
+      </c>
+      <c r="X52" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>460</v>
+      </c>
+      <c r="X53" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>468</v>
+      </c>
+      <c r="X54" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+      <c r="K55" t="s">
+        <v>474</v>
+      </c>
+      <c r="L55" t="s">
+        <v>475</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>476</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>468</v>
+      </c>
+      <c r="X55" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+      <c r="K56" t="s">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>488</v>
+      </c>
+      <c r="J57" t="s">
+        <v>489</v>
+      </c>
+      <c r="K57" t="s">
+        <v>490</v>
+      </c>
+      <c r="L57" t="s">
+        <v>491</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>492</v>
+      </c>
+      <c r="X57" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
+        <v>498</v>
+      </c>
+      <c r="L58" t="s">
+        <v>499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>501</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>502</v>
+      </c>
+      <c r="J59" t="s">
+        <v>503</v>
+      </c>
+      <c r="K59" t="s">
+        <v>504</v>
+      </c>
+      <c r="L59" t="s">
+        <v>505</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" t="s">
+        <v>511</v>
+      </c>
+      <c r="L60" t="s">
+        <v>512</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>513</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>514</v>
+      </c>
+      <c r="X60" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>518</v>
+      </c>
+      <c r="J61" t="s">
+        <v>519</v>
+      </c>
+      <c r="K61" t="s">
+        <v>520</v>
+      </c>
+      <c r="L61" t="s">
+        <v>521</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>522</v>
+      </c>
+      <c r="X61" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>525</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>526</v>
+      </c>
+      <c r="J62" t="s">
+        <v>527</v>
+      </c>
+      <c r="K62" t="s">
+        <v>528</v>
+      </c>
+      <c r="L62" t="s">
+        <v>529</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>530</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>531</v>
+      </c>
+      <c r="X62" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>534</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>535</v>
+      </c>
+      <c r="J63" t="s">
+        <v>536</v>
+      </c>
+      <c r="K63" t="s">
+        <v>537</v>
+      </c>
+      <c r="L63" t="s">
+        <v>538</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>539</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>540</v>
+      </c>
+      <c r="X63" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>544</v>
+      </c>
+      <c r="J64" t="s">
+        <v>545</v>
+      </c>
+      <c r="K64" t="s">
+        <v>546</v>
+      </c>
+      <c r="L64" t="s">
+        <v>547</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>548</v>
+      </c>
+      <c r="X64" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>551</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>552</v>
+      </c>
+      <c r="J65" t="s">
+        <v>553</v>
+      </c>
+      <c r="K65" t="s">
+        <v>554</v>
+      </c>
+      <c r="L65" t="s">
+        <v>555</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>556</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>557</v>
+      </c>
+      <c r="X65" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>560</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>561</v>
+      </c>
+      <c r="J66" t="s">
+        <v>562</v>
+      </c>
+      <c r="K66" t="s">
+        <v>563</v>
+      </c>
+      <c r="L66" t="s">
+        <v>564</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>565</v>
+      </c>
+      <c r="O66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>566</v>
+      </c>
+      <c r="X66" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>570</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>574</v>
+      </c>
+      <c r="X67" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>578</v>
+      </c>
+      <c r="J68" t="s">
+        <v>579</v>
+      </c>
+      <c r="K68" t="s">
+        <v>580</v>
+      </c>
+      <c r="L68" t="s">
+        <v>581</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>582</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>583</v>
+      </c>
+      <c r="X68" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>586</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>587</v>
+      </c>
+      <c r="J69" t="s">
+        <v>588</v>
+      </c>
+      <c r="K69" t="s">
+        <v>589</v>
+      </c>
+      <c r="L69" t="s">
+        <v>590</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>582</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>591</v>
+      </c>
+      <c r="X69" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>594</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>595</v>
+      </c>
+      <c r="J70" t="s">
+        <v>588</v>
+      </c>
+      <c r="K70" t="s">
+        <v>596</v>
+      </c>
+      <c r="L70" t="s">
+        <v>597</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>582</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>598</v>
+      </c>
+      <c r="X70" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>606</v>
+      </c>
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>607</v>
+      </c>
+      <c r="X71" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s">
+        <v>612</v>
+      </c>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>614</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>606</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>607</v>
+      </c>
+      <c r="X72" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>621</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>622</v>
+      </c>
+      <c r="X73" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>625</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>626</v>
+      </c>
+      <c r="J74" t="s">
+        <v>627</v>
+      </c>
+      <c r="K74" t="s">
+        <v>628</v>
+      </c>
+      <c r="L74" t="s">
+        <v>629</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>630</v>
+      </c>
+      <c r="O74" t="s">
+        <v>87</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>631</v>
+      </c>
+      <c r="X74" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>634</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>635</v>
+      </c>
+      <c r="J75" t="s">
+        <v>636</v>
+      </c>
+      <c r="K75" t="s">
+        <v>637</v>
+      </c>
+      <c r="L75" t="s">
+        <v>638</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>639</v>
+      </c>
+      <c r="X75" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>642</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>643</v>
+      </c>
+      <c r="J76" t="s">
+        <v>644</v>
+      </c>
+      <c r="K76" t="s">
+        <v>645</v>
+      </c>
+      <c r="L76" t="s">
+        <v>646</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>647</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>648</v>
+      </c>
+      <c r="X76" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>651</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>652</v>
+      </c>
+      <c r="J77" t="s">
+        <v>653</v>
+      </c>
+      <c r="K77" t="s">
+        <v>654</v>
+      </c>
+      <c r="L77" t="s">
+        <v>655</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>656</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>657</v>
+      </c>
+      <c r="X77" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>660</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>661</v>
+      </c>
+      <c r="J78" t="s">
+        <v>662</v>
+      </c>
+      <c r="K78" t="s">
+        <v>663</v>
+      </c>
+      <c r="L78" t="s">
+        <v>664</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>665</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>657</v>
+      </c>
+      <c r="X78" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36272</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>667</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>668</v>
+      </c>
+      <c r="J79" t="s">
+        <v>669</v>
+      </c>
+      <c r="K79" t="s">
+        <v>670</v>
+      </c>
+      <c r="L79" t="s">
+        <v>671</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>665</v>
+      </c>
+      <c r="O79" t="s">
+        <v>129</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>657</v>
+      </c>
+      <c r="X79" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>672</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="751">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>kingstravel2016</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I reserved a room for my parents who were visiting town for a family event.  From the moment we stepped into the elevator, we noticed how dirty and smelly the hotel was!  My parents noticed that their room was not cleaned after their first night there.  They were told by a cleaning lady that they only clean the rooms once a week, but she would give them clean towels - seriously?!!!More</t>
   </si>
   <si>
+    <t>Evelyn E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r587647418-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Hotel is in a great location close to shopping and food places. Rooms are clean and spacious and have a mini kitchen with a full size refrigerator cooking utensils are supplied if needed. Patty, Ivana , Irving and staff have made staying here very welcoming. very handicap accessible.More</t>
   </si>
   <si>
+    <t>Monique S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r582735555-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Let me start off by saying, the customer service here is amazing! Unfortunately, my room type that I chose was oversold. Theresa, the front desk agent here, called me and let me know immediately. She went above and beyond to accommodate my reservation, and even went out of her way to already have my dishes in my room prior to arrival. Staff members here are very helpful and friendly. I was always asked hows my stay/room so far. It was very pleasing. My room was a basic king size studio. Bed was comfortable. Room was clean. Property was clean and up kept, and the best of all, it was quiet!! Whenever i'm back in Socal, this will be my go to location!! Thanks to staff and the manager for making my stay so comfortable!!More</t>
   </si>
   <si>
+    <t>245vinod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578100424-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Dennis did a great job during our stay , he made our stay very comfortable , we will choose this again. He helped my wife with getting what she needed and went out of his way to accommodate her. I thank him for his service and we are glad to share our thoughts about our stay here.Thank you.Vinod Rai and Seema RaiMore</t>
   </si>
   <si>
+    <t>Barath T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578095978-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>Nice hotel.. nice service by Dennis.. honest.. gentleman.. he is great.. service by Dennis and Angelina is good.. they are doing a great job here.. I appreciate.. thanks to them.. happy with service..More</t>
   </si>
   <si>
+    <t>Annie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r578077153-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>Dennis is great at what he does he is courteous and nice and is there to help you if you need anything no matter how small not to mention he is willing to go the extra mile to help you with any concerns that you may have.More</t>
   </si>
   <si>
+    <t>richardcV4205WR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r566198758-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>Nothing bad to say about the hotel and nothing to brag about. Hotel is average. Nothing else to say, but writing a review can be hard if the hotel is just okay. The cable sucks and so does the breakfast.More</t>
   </si>
   <si>
+    <t>feleciam2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r559276717-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -358,6 +382,9 @@
   </si>
   <si>
     <t>this hotel has got to be the closest to actually staying at your own home. i recommend this to anyone who likes the environment. The basketball court court in back is one of the best things that i like. They are pet friendly and never complain about my petMore</t>
+  </si>
+  <si>
+    <t>matthewgregory19</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r553269626-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
@@ -393,6 +420,9 @@
 Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in...My wife and I had reservations through Priceline at Extended Stay America - Los Angeles - Arcadia 12/31/17 - 1/2/18 for a trip to the Rose Parade and Rose Bowl.  I called the hotel around 12:00 PM to verify our reservation and to see about the check in time.  We were told the hotel did not do an early check in time and the earliest would be 3:00 PM.  I was told by the hotel that as long as we arrived by midnight our reservation would be upheld. That night we arrived at the hotel at approximately 11:15 PM to check in.  The attendant at the hotel told us "I'm sorry but we overbooked and don't have any available rooms."  She offered no other help than for us to call Booking.com.  She offered no explanation other than that she was actually just the laundry attendant and was told to tell us the hotel had overbooked.  She then told us there actually were available rooms in the hotel but they were not clean and they did not have the staff to clean them.Even though the hotel clearly knew this had happened, no attempt was made to contact us prior to our arrival.Extended Stay America - Arcadia did not honor our reservation even though I called to verify the day of.  This hotel left my family on the streets on New Year's Eve, the busiest night of the year in Pasadena while all other hotels were also already booked.  I have lost complete faith in this hotel.Also, we have not had our money for this hotel refunded to date.More</t>
   </si>
   <si>
+    <t>tamarrak2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r552495065-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>It was obvious that housekeeping don't clean the rooms as they should. Found a dead lizard, a  cigarette, or and ants. The refrigerator made noise all night long. Location is right by the freeway, so you hear cars constantly going by. More</t>
   </si>
   <si>
+    <t>ksjr2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r552307640-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>We had booked this hotel as we needed lodging overnight near Rose Parade. Upon arrival the we waited  a 1/2 hour for staff to come back to lobby. There was only one person working and she was the one of the only reasons hotel received even 3 stars. She was doing her best under tough circumstances. The hotel was over booked and many patrons were in lobby with room keys not working or room was already occupied. We had to split up our party as we needed two beds and room we booked on Priceline was not available. Rooms are very dated and need refurbishment. Not sure if appliances and bathtub were just stained with age or dirty. The only other reason I kept this rating 3 stars was for quick check out and not much audible room noise from other guests. Would not return. More</t>
   </si>
   <si>
+    <t>bc a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r544488876-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>We stayed here for two nights. Since I had a baby, we requested a room away from hwy. The front desk was so rude and she told me I would get what I would get, obviously they had some room facing parking lot they just don't want to let them go. The first room had a seriously strong smoke Odor and I came down to complain, she did not show any concern and said 'we are all non smoking rooms, but some people just smoke, what can we do?' Very reluctantly she moved me to another room which was close to Hwy. The sound isolation was so bad that we did not sleep the whole night.Next morning I came down and an assistant manager, Jess, promised to move me to another room away from Hwy, but not until mid noon, so we waited until that time and approach the front desk again. Jess say they do not have any room left and the only option was another room looking at Hwy. Wtf, I felt being tricked and asked for refund for both nights. Luckily I got the money back.The hotel is terribly dirty, cookies in air-con, hair on floor and bad odor. If you value your money stay away please!More</t>
   </si>
   <si>
+    <t>Karla V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r535446709-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>The hotel is old and dingy. The kitchenette was old and basic. Wouldn't cook in it. Bathroom was old. Beds were comfortable. Room was quiet. Staff was nice and attentive. Windows opened only about 3 inches, needed to air out the old room. Good to just sleep, but wouldn't stay there if I had to spend any more time in the room.More</t>
   </si>
   <si>
+    <t>I6048ZZgailb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r533929102-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Jess made our 2.5 month stay a pleasant experience.  The hotel was perfect for our needs as we were able to keep our animals with us.  It was very nice that there were laundry facilities for our use and would highly recommend the stay here.More</t>
   </si>
   <si>
+    <t>Ruth F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r532085993-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>Nice but no ice machine and the ice trays in the freezer were empty.  The room was very nice though.  The front desk was helpful.  We had a reservation for a King room but all they had when we got there was a Queen.More</t>
   </si>
   <si>
+    <t>Jane B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r513015126-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>Hopefully,  we will get our ACCESSIBLE room. Tomorrow.  Maybe my brother will be able to be a little independent without the fear accidentally falling while trying to reach for something.  It would be nice to have a little more freedom. More</t>
   </si>
   <si>
+    <t>tjw100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r511988304-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>First of all, the front entrance is dirty, cig butts everywhere, looks like people have urinated or thrown up on the brick walkway. The desk clerks are nice for the most part, but untrained and there is no communication. I specifically asked for hskpg on Sunday and they agreed, and since then have had to argue with them every Sunday, as they say they don't clean rooms on wknds except City of Hope patients. I have to be in the room when they clean as i have had stuff damaged and stolen at 3 other Extended Stay Americas.  My room did not get cleaned 3 different times, and the last time my toilet bowl was getting black when i finally got them to come in and clean the room. Then when i checked the bathroom after she left, she had not touched the sink or faucet.  I have asked several times for the manager's name and they point to the card that has asst mgr name, and he is beyond useless.More</t>
   </si>
   <si>
+    <t>daltonscabinets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r509469305-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>Great amount of space in the king suite.  Only two roll away beds in the entire hotel, so we had to purchase a spare mattress for one of our kids.  The hotel was nice and paid for the spare mattress since we had to purchase it and they didn't have any additional roll away beds.  More</t>
   </si>
   <si>
+    <t>Adrian G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r504885390-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -654,6 +711,9 @@
     <t>Toilet overflowed in the room.  Water was everywhere!! No maintainance available to fix it!! Had to wait over an hour for a new staff to plunge the toilet herself!!   Poor girl!!  Cant this hotel keep people on duty to fix these things!!More</t>
   </si>
   <si>
+    <t>Scrable1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r502809771-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -676,6 +736,9 @@
   </si>
   <si>
     <t>We needed a place to stay while our house was getting some upgrades. We chose this because they allow pets, have rooms with kitchens and the location was good. We stayed a week and a half. The pros are that the staff is super friendly and helpful, the room was exactly what we needed for this time, and while being helpful when you need them, the staff otherwise leaves you to yourself, a feature we appreciated. Our dog was welcomed, and there was a nice little grassy area with a basketball court, picnic tables and a barbecue where she could run a little. The down side of this facility is that it is right up against the busy freeway, and the no-man's land between the property fence and the freeway appears to be a homeless encampment. All in all, though, we were very comfortable. Comfortable bed, good table and chairs, lights in all the right places, plenty of outlets. Great shower. We ended up using our hotspots on our phones for internet, as the Wi-Fi provided for free is not secure. No laundry service, but coin-operated laundry on site.More</t>
+  </si>
+  <si>
+    <t>jerseyscouter</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r502176314-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
@@ -709,6 +772,9 @@
 Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to...JPL intern on housing stipend stayed here 1/19 to 6/23 on a Tiered rate structure. For 99 nights or more rate was $59 and then incremented to $67 for a few weeks. Rooms are suppose to be cleaned once per week under EPP programPros:  Proximity to JPL; close to light rail system; onsite parking; initial tier rates within housing stipend; good  alternative to airbnb room share in the pasadena area; hotels willingness to renegotiate EPP rates for part of stay.Cons: Housekeeping skipped a beat many times on cleaning the room even once per week.  Requests to remind the front desk were either forgotten or ignored so sometimes it would be 2 weeks before room would be get cleaned.  Many times availability of towels from the front desk resulted in none or that they were in the dryer.  Mail sat in file folders for MONTHS without notifying us. In once case mail delivered in March was not given until May.    As EPP renewal rate was going to the $81 tier,  management would not extend the $67 stay.  As such, we were compelled to move out.  However, two days after moving out a 40% coupon showed up which would have brought the rate down to the $67 level.  Complaints to management about the housekeeping, mail, and the tiered rate structure resulted in about 5% refund of prior payments.  The wifi is marginal most of the time and you need to use your hotspot for any internet connectivity.More</t>
   </si>
   <si>
+    <t>Steven S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r497730400-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -737,6 +803,9 @@
 Extended Stay need to clarify their policies regarding this issue since...The clerk at this hotel refused to allow me to check in with my bird in spite of a call the night before when I was told by night staff I would be allowed to check in with my pet.   She rather unapologetically said this was the hotel had a policy against "exotic pets" and showed me this policy after she placed several calls without success to supervisors and made a judgement call on her own.  Upon showing me the policy it indeed said that "exotic pets" were excluded, however it did not specify that a bird would fall into this category.  I did argue that an exotic pet is something like a python or an iguana, and not a small bird but she refused to consider it saying her hands were tied by policy.  Which I found was not entirely true and was more a matter of her interpretation of the very vague policy since I went down the street to the Monrovia location (confusingly just a block from the Arcadia location) and was able to check in with no problems whatsoever. My review of the Monrovia location which is up separately would have been a 5 star had it not been for this experience.  Likewise this review would have been a 1 star had it not been for the polite reception I received from the Monrovia location. Extended Stay need to clarify their policies regarding this issue since it affects clients who just want to check in for their stay.  Additionally,  I think some customer service training would be in order for the staff at the Arcadia location.  My frustration with the hotel only was exacerbated by her unhelpful and unapologetic attitude.More</t>
   </si>
   <si>
+    <t>H8896CGhannahl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r495389382-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -761,6 +830,9 @@
     <t>There were 8 of us tying to stay in the same hotel for the week. My friends and I made our reservation and got our suite but my family's reservation apparently "didn't exist" so half of my family had to stay far away and split up the group. We were never told what dishes/appliances came with our stay so we had to call down one by one to ask if we could have specific items. We needed a toaster and when it came it was broken! We called and they said they had no more left to give out. We called down another time and asked for dishes and she said it would take 20 min to sanitize. A hour later we called down about the dishes and she said we had to come get them ourselves! There was 4 of us in he room but she only gave us 2 plates and said that's all they had left. The pillows smelled soiled. Housekeeping NEVER came to clean our room and when we asked about it they had no resoultion or suggestion. We had to go to the front desk for towels, toilet tissue and soap!!!! At check out they tried to add on extra fee's that he claimed we never paid even though we paid in cash at check in for everything! Basically this hotel didn't have enough items for everyone to use at once and no customer service. More</t>
   </si>
   <si>
+    <t>chanetram</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r494445734-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -785,6 +857,9 @@
     <t>I was very disappointed in the hotel. It appears that some of the guest actually reside in this hotel. Dishes remained in the hallway for 3 days from a guest next door to our room. My husband had to ask the front desk twice to have the dishes removed. The telephone and the lights above the beds did not work.More</t>
   </si>
   <si>
+    <t>Jovita Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r467276003-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -803,6 +878,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>SanDiegobirdlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r452906473-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -818,6 +896,9 @@
     <t>This is my second visit to this hotel.  Be sure to stay at the one in Arcadia on Santa Clara St.  Just two blocks away in Monrovia is another Extended Stay and it is not as nice.  Front desk was great, easy registration and room was clean and impressive with large, great mattress bed, a kitchen, free parking.....  Breakfast is just a grab and go of coffee, tea and a muffin or breakfast bar.  But, the savings from other hotels was well worth staying here.  You had a kitchen if you wanted to cook something.  Great location near the freeway without the noise.</t>
   </si>
   <si>
+    <t>Stephanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r452062974-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -836,6 +917,9 @@
     <t>We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the...We stayed during the busiest time of the year, the night before the Rose Parade.  I chose the hotel because I had originally booked on booking.com at another Extended Stay in the area and about 2 weeks before our trip, had gotten an email stating that that location did not have a room with 2 beds, like I had reserved.  So I called this hotel directly because it appeared they had a room with 2 beds.  When we got to hotel, there was another group in the lobby having trouble with their booking.com reservation and the room they needed was not available. Note to self, don't use booking.com.  Anyway, the girl at the front desk was short with me and the other guests and was complaining that she was the only one working that night.  She checked us in, but we had to drag our stuff up 2 flights of stairs because the elevator was broken.  We had also asked for a roll away bed when I made my reservation, but they didn't have any, so we asked for extra blankets and pillows, which they did bring.  Overall, the room was very dated, as was the lobby.  It did appear clean.  We did not use the kitchen because we were only there for one night.  Based on our experience, I don't think I would return again, but it was a place to sleep and shower, but definitely not worth the $200+ we spent for the night.  But with so few choices due to the booking.com error, it met a need the night before we got to watch our son march in the parade!More</t>
   </si>
   <si>
+    <t>Nancy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r448919828-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -854,6 +938,9 @@
     <t>Staying in town for the Rose Bowl.  Booked through booking.com.  When we arrived they didn't have our reservation- but somehow they had our home address(?).  We need 2 double beds, they had an "emergency room" with a king.  There were 4 of us.  Had to take it or sleep in the car.  Booking.com had confirmation that they sent our reservation and Extended Stay blamed booking.com.  No cots, elevator broken, kitchen had no utensils, vending machine broken, 1 tiny shampoo, no tissues, dishes laying the hallway.  Surprise, surprise - upon checkout another guest trying to check in was having the same issue with a Booking.com reservation.  Pass this hotel as quickly as you can.More</t>
   </si>
   <si>
+    <t>lindakV6153NY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r446656786-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -875,6 +962,9 @@
     <t>Location was great, convenient to many things.  Many updates are needed to rooms such as the bathrooms needing updates regarding fixtures and sink.  Rooms are dark but comfortable, sheets were hard and rough.  The rooms themselves need make overs.  Other than that no problems with noise or animals.  It needs a business center, yet the staff had no problem printing stuff if needed.  It could use a "gym" or a pool on site as well.  Staff very pleasant and more than accommodating.  Weekly cleaning was fine.   Whole place itself just needs a make over/update.  I would stay again and I recommend the place.  Beware stay away from the Monrovia facility (its right around the corner)  that place sucks.  Don't confuse the two.More</t>
   </si>
   <si>
+    <t>cklonowski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r443343512-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -902,6 +992,9 @@
     <t>Got a very good rate on an advanced booking, so felt it was very good value for money.  However, there was some constant noise from the adjacent freeway and the quality of utensils and cooking items was average.  You had to order them from Housekeeping and they brought a large box to your room after checkin. Location was great, just around the corner from lots of restaurants and 5 minutes from the Huntington Gardens.  Stayed 3 nights, but would only stay again if I got a room further from the highway.More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r424226820-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -929,6 +1022,9 @@
     <t>Nice rooms, full kitchen, bed a bit old but ok. Noisy from highway is you open the window. Have on site laundry, cost about $2 only/load. No breakfast but "grab and go" bar. Front desk staff is very helpful. Good free Wi-Fi.More</t>
   </si>
   <si>
+    <t>stivpg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r421502316-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -953,6 +1049,9 @@
     <t>The room is good size with functional kitchen. The staffs are friendly and professional. I agree with the prev. review, I would recommend the hotel to dedicate pet-free rooms. We loves pets but it would be nice to accommodate people that has special condition reaction.More</t>
   </si>
   <si>
+    <t>929melaniea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r397132838-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -980,6 +1079,9 @@
     <t>We were in an accessible room and it was huge and quiet, despite being close to the lobby. The kitchenette was handy and everything worked. The staff were all very courteous and friendly and were very attentive to all our needs. My only issue is while the entire hotel was non-smoking, they do not have a guaranteed pet-free room. The hotel is pet-friendly and we didn't mind that but the room we were in had a lot of pet dander - likely not vacuumed well by housekeeping - this makes it difficult for those with asthma or reacts to pet dander. Perhaps, this is something that can be addressed. Overall, a good stay!More</t>
   </si>
   <si>
+    <t>Rachele H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r365274305-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1007,6 +1109,9 @@
     <t>Excellent service from beginning to end. Rooms were clean. Great location. It is super close to the  Highway.  We were about 40 min from LA and Venice Beach . Halj hr from Dianey and 2 hours from San Diego. Would definitely stay there again!More</t>
   </si>
   <si>
+    <t>ritch62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r363061151-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1025,6 +1130,9 @@
     <t>Nice rooms, full kitchen but need to rent dishes, bed comfortable, noisy on 3rd floor from highway and from machinery on roof (?) but room to room and floor to floor is quiet.  no breakfast but "grab and go" is ok. front desk staff is very helpful.  good free Wi-Fi.More</t>
   </si>
   <si>
+    <t>kikiSpokane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r341787615-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1052,6 +1160,9 @@
     <t>We usually stay at the Hampton Inn in Arcadia, CA, but their prices just kept going up over the years and I decided to check elsewhere. The Extended Stay offered a very good rate. We loved our one night stay. The rooms were very comfortable and all the staff took very good care of us. Be sure if you book the Extended Stay in Arcadia that you make sure you have the one on Santa Clara Street and not the other Extended Stay hotel which is only a couple of blocks away. I have only stayed at this hotel and can't speak about the other Extended Stay in Arcadia. I would highly recommend the Extended Stay Hotel. We will use it the next time in Arcadia. You do not have to stay for an extended time. We only stayed one night and were treated very well by everyone we met who worked at the hotel.More</t>
   </si>
   <si>
+    <t>omgj808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r326172611-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1073,6 +1184,9 @@
     <t>What I liked:Clean kitchen, bathroom and room.Morning coffee in the lobby was really good.  Also, the continental breakfast was good for something quick or to take on the go.  Apples, bananas, instant oatmeal, granola bars, muffins, coffee, tea, hot chocolate....Front desk people were very nice.Seemed to be lots of parking in October.  Stalls were large enough for a big SUV.What I didn't like:There were no hangers to hang your clothes.There was no hair dryer in the bathroom.The shower curtain smelled a musty.Wifi was a little slow at times, but it was free.The toaster did not work.  I didn't bother asking for a replacement.Not sure why I expected some "starter" coffee packets in the room, but there weren't any.  But, the coffee in the lobby was really good.In general, this is a basic, budget, no frills room equipped with a kitchen.  The furniture and ironing board were a little run-down, but if you are looking for somewhere to just lay your head down for a night or two, this is a place is a good deal.More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r320212773-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1091,6 +1205,9 @@
     <t>I booked this place sight unseen at the last minute, needing some place cheap for 1 night.  When I exited the freeway, I got confused when my GPS directed me past an Extended Stay America.  There are 2, a couple of blocks apart.  When I checked in, I asked for a room away from the freeway, something I always do.  The desk clerk said to sit tight and he'd check if the room was ready.  When he came back, he said my 2nd floor room was ready. This was real service!  He recommended several restaurants within a few blocks.  When I arrived at my room, it was clean &amp; well appointed.  I addition to a full kitchen, it had 2 desks and a comfortable lounge chair.  Everything worked; lights, TV, WiFi, frig, shower.  I also heard no freeway noise.  What more could I ask for.  The next morning, I went down to my car.  In the lobby was a very nice continental breakfast.  I was very happy with my stay, and have already recommended it to friends.More</t>
   </si>
   <si>
+    <t>Karen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r318418237-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1106,6 +1223,9 @@
     <t>I chose this hotel due to the fantastic ease on and off the 210 freeway.  It was clean, comfortable and the staff was very friendly.  There was plenty of free parking available and I even noticed an area for pets to relieve themselves, which I thought was very nice due to the fact that so many people travel with their pets.  Don't shy away from this hotel because it is close to a busy freeway.  Our room backed up to the freeway and the noise was extremely minimal...no problem sleeping.</t>
   </si>
   <si>
+    <t>Jeanaroo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r286202367-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1133,6 +1253,9 @@
     <t>We've stayed here 4 or 5 times in the last 12 months and have never been disappointed!  The rooms are very basic but also very clean.  A full fridge and microwave make all the difference in convenience and comfort.  In the morning, you can go down and get a cup of very good coffee--no need to search for an overpriced cup at Starbucks!  One tip:  bring your own shampoo and conditioner.  Only soap is provided.  Sometimes the front desk will have shampoo, but they tend to run out.More</t>
   </si>
   <si>
+    <t>mrmrsgonz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r283383680-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1160,6 +1283,9 @@
     <t>At the last minute, I needed a room to stay.  I had heard many good things from co-workers and friends about this hotel.  I booked my room online and then I called to see if I could have an earlier check in as I was so exhausted from my long drive.  The front desk immediately tried to see what she could do to accomodate me. Within minutes they advised I could check in now.  I was so happy!  I received amazing customer service from Kelly.  She was extremely helpful and my husband and I can't thank her enough!  The room has tons of space to move around and is very clean and comfortable.  My husband and I already have plans to return!More</t>
   </si>
   <si>
+    <t>yeozydoj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r277660634-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1184,6 +1310,9 @@
     <t>Second time in three weeks had to request they replace the fridge. The first one smelled like baby powder,disgusting. They just stop working and all the food has to be thrown away. The bathrooms have no air venting in or out. Staff is very nice. I really dont get these places they bring in alot of money and penny pinch on everything. Should have more pride in thier Hotel.More</t>
   </si>
   <si>
+    <t>BethM71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r264695036-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1205,6 +1334,9 @@
     <t>Stayed here because it accepted pets and we brought out dogs with us.  The customer service was very good.  The toilet in the room had to be plunged several times during our three day stay.  There was a strange smell when entering the room.  We also had our doxie get kicked out of the hotel for barking during the day.  That caused an extra expense that we did not anticipate.  The rules state that quiet time is from 10 pm through 8 am.  My dog was completely quiet and sleeping with us during that time.  No where does it state that barking is not allowed, yet we still could not keep him there.  All in all, it was an okay stay.  Not the greatest hotel but not the worst.More</t>
   </si>
   <si>
+    <t>Beverly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r260253870-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1232,6 +1364,9 @@
     <t>Upon arrival I inspected my room, the carpet did not looked vacuumed, the toilet seat looked like it had dried pee on it, and there was a "stinky surprise" in the toilet. There was also an orange peel in the kitchen trash from the previous guest. I have been here 1 week, and the staff here is ok. There are only 2-3 front desk people that are on top of things. Their breakfast is so basic, and most days they are out of oatmeal. They are even out of sugar. Housekeeping is only supposed to service your room 1x/week, but I came back to my room tonight to find that it was never cleaned. I just called the front desk to report this, and they the girl on the phone just said "okay...........(long pause) I will put you on the list for tomorrow" I gave her my room number and hopefully it will actually get cleaned. I worked in the hotel industry for almost 13 years, and the way she handled the situation was so inadequate &amp; unpleasant (Hence the reason for this review). Not even an apology from her! She even said to make sure there is not a do not disturb sign on the door tomorrow. When I said that there wasn't one on it today, she said "oh, I'm not making excuses, I don't know what happened, I wasn't here" COME ON!!!! Are you kidding me?!?!More</t>
   </si>
   <si>
+    <t>Taylor--11111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r259328473-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1254,6 +1389,9 @@
   </si>
   <si>
     <t>Before I got to my room I was impressed by Jonathan at the front desk. He is friendly and knowledgeable. He patiently answer all of my questions with clear answers. The room was quality was better than I expected and the price was good. I would stay there again. More</t>
+  </si>
+  <si>
+    <t>CBL_Travel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r245690696-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
@@ -1288,6 +1426,9 @@
 It's honestly the simplest things that...Ok I'm writing this review and I barely just arrived here at the Extended Stay in Arcadia, the one that is on Santa Clara not the one that's on 5th st. which is literally around the corner. The reason I'm writing this review so soon even before I have checked out is because of the unbelievably great A++++++ super friendly helpful customer service I have just been given by the front desk associate by the name of ROSA.  Let me tell you exactly why I feel so overwhelmingly satisfied about how I was treated today at check-in...Oh BTW I frequently stay at the extended stay which is literally just down the street from where I live to relax every so often and just have some time off to myself, so I know how things usually go and the procedures of how check-in usually is, so i was expecting the usual steps :Your last name sir, itinerary, credit card you paid with and please sign here, thanks here is your key your room is so and so and its floor yadiyada..Ok so nothing is wrong with that and I have no complaint over the usual but it's such a great feeling being welcomed and treated with a more concerning warm welcome which I have received today by I would say the NICEST and most HOSPITABLE front desk associate her name was Rosa. It's honestly the simplest things that a person who works in this field can do to make a guest feel at home and comfortable. I was kindly greeted as soon as I entered the front door, but what was different about this was I had been greeted whilst the associate had her hands literally full carrying two crates of pots and pans. Instead of ignoring me while she was busy I was acknowledged. I did offer her my help but she politely said that she was ok. I gave her my last name and my ID and I asked her if it was possible to have a room with two beds just because I figured the extra bed would be nice just so that id have one bed to sleep on and the other to put my things on and just have as an extra. I stood there unable to determine which would best be for me considering that there was a $10 fee so instead of her waiting for me to figure it out she actually offered to show me the rooms to see which was best to my liking. Now talk about customer service. I honestly have stayed multiple times at the extended stay but all my stays have been at the one over on 5th and not once have I ever been treated with such great service as I have received here which is literally just hop skip away. Not only was I able to pick which room I had wanted but since I had checked in a little later than the usual she was nice enough to make my stay much more pleasant offering popcorn and a toothbrush and some other great things that I was not used to. I just would like to say thank you to the front desk agent Rosa and to her Manager which I am sure has something to do with great staff treatment. I must say it says a lot about management and definitely I would come back!!!More</t>
   </si>
   <si>
+    <t>Bella G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r245658436-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1303,6 +1444,9 @@
     <t>I stayed here for a night and the girl that helped me Check into my room was really helpful, and the morning Manager Rosa who checked me out was very nice and and gave me a late check out! =) id def come back and stay here again. More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r232296626-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1327,6 +1471,9 @@
     <t>Dark dismal dated rooms, next to a freeway so good luck sleeping, minimal breakfast, very few kitchen amenities, some guests seemed to have better pricing than we did, you get what you pay for with the lower price of the room? Front desk staff pleasant. However, we would not stay there again.More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r219313878-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1354,6 +1501,9 @@
     <t>The rooms have been striped of everything.  I used to go to Extended Stay as they had coffee makers.  Now I'm calling the desk and they are asking that dreaded questions "How many creamer's do you need?"  No thanks.  I will take my own coffee pot to Motel 6 the next stay.More</t>
   </si>
   <si>
+    <t>Beth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r218580969-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1378,6 +1528,9 @@
     <t>I meant to write this review weeks ago, but we stayed in this hotel for a month while we were doing service projects and I miss the friendly staff, especially Rosa who was very sweet and helpful. We could always get whatever we needed from the front desk and we enjoyed our fully stocked kitchen. It's in a nice location that you can walk easily into Arcadia and Monrovia and we always had room for parking. We were treated well, thanks for the great service!More</t>
   </si>
   <si>
+    <t>Desigal7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r217469392-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1405,6 +1558,9 @@
     <t>Altercation at midnight in next room with someone being slammed into wall.  Whole wall shook.  Then a man walked out into hallway screaming.  Very scary.  Stayed only one night even though prepaid for two.  No pricetag for safety.More</t>
   </si>
   <si>
+    <t>Bridgetdol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r212661313-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1429,6 +1585,9 @@
     <t>This was our first experience staying in an Extended Stay. Our room was clean and cozy and the kitchen was very economical. It save my family so much money rather than having to eat out. The staff was super friendly and helpful especially Rosa. She went out of her way to make sure we were comfortable and had everything we needed. We will definitely be staying here again. More</t>
   </si>
   <si>
+    <t xml:space="preserve">WRLYONS </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r210963898-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1453,6 +1612,9 @@
     <t>I was looking for a place to stay in the Arcadia area and I went on Priceline.com and it was suggested I try here I'm so happy I came and I got to meet Kelli and Martha and Rosa all of whom were very kind and helpful...  I get to see Rosa every morning and she is so sweet!  I look forward to staying here every time I come to town.More</t>
   </si>
   <si>
+    <t>Cody L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r210600723-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1474,6 +1636,9 @@
     <t>The room is very comfortable and the staff here is wonderful... specifically Rosa and Wan. They helped me get the best deal when I had to extend my stay from 3 days to 10 days. I love that the place is dog friendly for all types of dogs. My lab whines a little when I leave but it seems like the rooms are very private and the noise doesn't travel much. The only downside is that I was unable to upgrade to a faster internet because they only have the "free" speed at this location. Again, my experience with Rosa and Wan was just so friendly and helpful that it really left a super positive memory for this place in my mind.More</t>
   </si>
   <si>
+    <t>vgoh0406</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r199942744-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1501,6 +1666,9 @@
     <t>I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before...I am from Houston, Texas. I spent a total of 6 weeks in the Los Angeles area, visiting my daughter, who is attending Occidental College, in Eagle Rock, and hiking and camping in the mountains the rest of the time. During 3 of those weeks I stayed at the Extended Stay America in Arcadia. After I discovered this wonderful place, I refuse to stay anywhere else. There are many things that make this hotel special, and at the very top of the list is the people who work there. I have traveled to many places around the world and stayed at much more expensive facilities (in fact our family just recently returned from a 4 months vacation in Australia and Asia), and I can assure you that I have not seen a more consistently sincere, friendly, helpful, efficient and thoughtful group of people than those at this Extended Stay America facility, who would go the extra mile for you. The staff, including the housemaids, would also serve you with a genuinely warm and friendly smile - not the dutiful professional courtesy smile you receive at many other places. My daughter was so happy when we found this place, by accident, and whenever she is with me, she would insist on staying at this location. A week ago, I got sick camping in the mountain and 2 strangers brought me back to this hotel on my request. I got there before the morning check out time, but the reception was very kind to check me into a room early, even though I had no prior reservation. Each time I approached the receptionists for help, they always show such pleasure in attending to my requests. On many occasions, they had kindly accommodated my request to store my luggage, when I went camping in the mountain. In all the 3 weeks I have stayed at this hotel, the rooms have always been spotless, and each time the air conditioning and one of the lights would be on, so you would always walk into a lighted room with a comfortable temperature. Checking in at this hotel is always smooth, fast and pleasant. The WiFi is free and works great every time. For those interested in hiking, this is the perfect location to stay at. There are lots of access to mountain trails and camp grounds within a very short distant from the hotel. In fact, I would normally begin my hike from the hotel. REI is only 2 blocks away, for those who need extra gears. The hotel is situated within a 10 minutes walk to downtown Arcadia - a small but very nice area, where you can get all kinds of delicious fine food - Thai, Japanese, American, Italian, Vietnamese, Chinese and more; for those who are less picky about their food, yes, there are many fast food places too - In-and Out Burgers, Mcdonalds and others. Downtown Arcadia is a nice place to shop and there is an Arcadia courtesy bus that will take you to a major mall 10 minutes away. A five minutes drive will take you into Monrovia, where there are more food places and shopping. A 10 minutes drive along Colorado Blvd, towards Occidental College, takes you into Old Town Pasadena, which has lots of nice eating places and places to shop. This hotel is within minutes from the 210 freeway, which gives you quick access to LA and the surrounding area. It takes me a nice 15 minutes drive to Occidental College or, if I prefer a nice quiet drive, I would take Colorado Blvd and will be there in 25 minutes. Along the way, I can stop for food in Old Town Pasadena. My family and I have stayed at many hotels in the Los Angeles area, and I can assure you that, even if you have to drive an extra 15 - 20 minutes, the comfort, welcome and wonderful service you get at this place will more than compensate for it. So,look no further - plus you get to meet Rosa, Kelli, Ashley, Corina and all the wonderful staffs. You always get more than your money's worth at this location. I highly recommend this place to the families who are visiting their children at Occidental college, Pamona and Claremont-Mckenna Colleges.More</t>
   </si>
   <si>
+    <t>amelchiorri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r199040960-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1525,6 +1693,9 @@
     <t>The breakfast was extremely basic (oatmeal packets and chewy granola bars). Coffee was pretty good though.The chairs in the rooms have certainly not been cleaned in a long time.The only other issue I had was that you have to request even basic items at the front desk.Other than these issues, it was a good overall stay.More</t>
   </si>
   <si>
+    <t>richierules</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r193444837-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1543,6 +1714,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>J R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r186274858-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1564,6 +1738,9 @@
     <t>I stayed here solely because my job sent me to this location.  Half of us were split between the two sister properties while on assignment, and boy......did we get the raw end of the deal!  From the time we checked in, only one person knew what was going on.  There was a line at the front desk because there wasn't enough staff on duty.  Apparently, she was searching in the clean pile for wash clothes and towels.  Every day, this was an adventure and they never had enough.  Rosa seemed to be one of the only people on target.  Kelli was the other worker who seemed cheerful as well as helpful.  Unfortunately, Jonathan was not.  Not only, was he lost in terms of checking people in and out, but he never seemed to grasp the concept that he is working customer service.  He used the excuse that he was new and still training.  Unfortunately, another guest explained he has been there for 5 months, so how can he be considered new? David acted as if he didn't want to be there, not willing to lend a hand.  Martha the manager feels she can speak to guests however she feels pushing the blame onto guests in lieu of her untrained idiotic staff.    All-in-all, this place was infested with prostitutes, druggies and children with no respect for others.More</t>
   </si>
   <si>
+    <t>rr_allegra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r186188634-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1591,6 +1768,9 @@
     <t>I stayed at this hotel for about 3 weeks earlier this year because it is one of the few hotels that offers a full kitchen in this area at a reasonable rate. The only other reason I stayed here was because of its friendly staff who go out of their way to help their guests, especially Rosa, Kelli and Martha. All three of them are highly professional, very helpful and a joy to deal with.  Unfortunately, the hotel is in a bad location and it tries to cater to a lot of low-income people. As a result, it is not unusual to see police officers on the premises every so often. The rooms badly need maintenance. In our room, the air-conditioning unit did not work for days and some of the lights never worked due to electrical problems which were never fixed.  The laundry facilities and the storage area behind the front desk are extremely dirty and are not cleaned for days. But what it lacks in amenities is somewhat made up by the great service, hard work and the spirit of hospitality on the part of the those staff members mentioned above.More</t>
   </si>
   <si>
+    <t>Traveltoad18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r185702874-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1615,6 +1795,9 @@
     <t>I believe Extended Stay America has a great concept with their hotels. I appreciate the style, comfort, and ease of use. Unfortunately, this particular one is backed up right against a freeway, crawling with drug addicts, and littered with prostitution. I had a hard time getting a restful nights sleep with the heavy doors slamming constantly and I HAVE A BUSINESS TO RUN!! I realize you get what you pay for but they could at least be a little more selective with who they permit to stay. Also, unless you want to wake up with a tight feeling in your chest, don't stay on the third floor because it's a non-smoker's nightmare. For a working man or family without a home, Extended Stay is a great fit. I would never stay at this particular one ever again though. As far as the employees, they were pleasant to deal with and courteous. Two especially stood out to me. Kelli and Corinna. They were always very friendly and handled every situation in a professional manner.More</t>
   </si>
   <si>
+    <t>jimscleanhead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r174908960-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1642,6 +1825,9 @@
     <t>Had to stay for a couple of days while my home was fumigated. Prices were reasonable and pet friendly (25 extra a day for my cat).  Beds were comfortable, for hotel beds, room was clean and well kept.  Staff was helpful and accommodating. Would definitely recommend.More</t>
   </si>
   <si>
+    <t>JB1202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r171432781-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1669,6 +1855,9 @@
     <t>I ended up in this hotel because my company arranged it for me.  When it comes to the Arcadia area near the race track.  There are many places to choose from: Embassy Suites,  Spring Hill Suites, Doubletree hotel, etc etc.  Arcadia is famous to host conferences and in the Spring you have a lot of horse races at Santa Anita Race track so all these places get full really quickly.  I stayed there for two weeks before moving with my friend to the Embassy Suites in Arcadia.  I didnt care for the bed quality, it is next to the freeway it can get noisy. Their breakfast is a joke: bananas and coffee? The kitchen doesnt come with any utensils so pretty much worthless.  I would never come back here againMore</t>
   </si>
   <si>
+    <t>Thomas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r167844678-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1693,6 +1882,9 @@
     <t>Rosa and the staff where very great they make you feel right at home. The room was very clean and well maintained. The hotel in very close to excellent eating establishment and shopping. If you need a place to stay this is a good stop.More</t>
   </si>
   <si>
+    <t>D C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r161830882-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1720,6 +1912,9 @@
     <t>I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking...I've stayed here a few months, having the best experience ever.  The staff is excellent.  They're extremely courteous, sweet, helpful and very friendly.  Rosa, Corina, Kelli, Ashley, Fermin, David, Erik and Brandon have great work ethics, having a great chemistry with (not only) one another, but the customers that come in.  The professionalism they have is un canning.  There haven't been many hotels that I've stayed at that have great, and fast working house keepers, but this particular location has friendly house keepers who have gone the extra mile for myself and family members.  They ensure their is clean linen, round the clock towel service, from customers requesting more utensils have been honored and executed in a timely manner.  For instance, there was a leaky faucet that required us to move rooms.  Not only, were they extremely apologetic but the response time was minutes from their knowledge of the situation.  They switched our room instantly having us move into a larger more spacious place that accommodated myself and family a lot better.  I, not only recommend this hotel to friends living outside of the area, but have listed it as one of our favorite places to stay to some local coworkers.  Their accommodations include free wifi, a grab and go breakfast that helps boost your day.  The location is convenient, too.  Not only is it settled on a nice quiet street, directly off the main strip, but it's in walking distance to Monrovia's Restaurant Row able to satisfy anyone's palate of desire.  The price is reasonable for this area and is well maintained.  I will definitely stay here again in the near or far future.More</t>
   </si>
   <si>
+    <t>gailr1021</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r158503204-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1747,6 +1942,9 @@
     <t>These two are outstanding staff members. They are very welcoming friendly attentive and respond very quickly to any issues. My bed was so comfortable and am enjoying my stay. I also want to mention the housekeeping staff They always smile and say hello. The only issue I have is that not all pet owners are responsible and fail to pick up after their pets. Perhaps a sweep once a day will help those who are responsible not to have to watch out for the mess and smell as they are taking care of their dogs.More</t>
   </si>
   <si>
+    <t>Christopher F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r157989230-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1771,6 +1969,9 @@
     <t>I really loved the accommodations and free WIFI.  Staff was SUPER helpful.  Fermin helped me out big time when I ran out of shaving cream.  He also helped me make change in the middle of the night!  Great service!My room was very spacious and clean.  Came with a first rate refrigerator and stove.  Bed was extremely comfortable.The building is beautiful and the staff in general are friendly and attentive.  I would recommend this place.More</t>
   </si>
   <si>
+    <t>Rick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r154665350-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1798,6 +1999,9 @@
     <t>If you are coming for a pleasure trip (and won't be on the Internet), this place is fine...but if you are coming for business and need a good Internet connection at the hotel, better BYO, or go elsewhere. Speedtest.net showed a paltry 0.08 Mbps download speed. I swear I am not making this up.More</t>
   </si>
   <si>
+    <t>BRTStark22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r152221866-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1822,6 +2026,9 @@
     <t>Corrine did a great job because she has great communication skills, she listens fully to people when the speak to understand their needs, is very professional and also genuine at the same time. She was responsive to all inquiries and had timely and accurate follow through. She seemed happy when communicating and that is a quality that cannot be taught.There is no doubt that extended STAY AMERICA is a value but I would not expect the level of friendly service that all the staff provides. I would love to know how you train them because they have an enthusiasm that is hard to find.More</t>
   </si>
   <si>
+    <t>Ali K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r152187331-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1843,6 +2050,9 @@
     <t>Excellent location, friendly, professional and helpful staff. I walked in to a spacious, vibrantly clean room. From check-in to check-out I felt like I was at a home away from home. Was treated with such warmth and respect by the entire staff. Kudos to Management for leading such a great team. I look forward to my next stay and will definitely recommend this hotel to friends and colleagues.More</t>
   </si>
   <si>
+    <t>brtstark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r151130339-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1870,6 +2080,9 @@
     <t>With such a great price you would not expect great service as well. Brandon helped me modify my reservation over the phone in mere seconds and answered a lot of questions too. He was professional and genuine.More</t>
   </si>
   <si>
+    <t>Maria S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r150892770-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1888,6 +2101,9 @@
     <t>I have been traveling in and out of the Arcadia area for about three months now and every time I come I stay here.  You simply cant beat the price especially for what you get. Full refrigerator, which is hard to get anywhere! If your looking for five star amenities then don't stay but for the price its great and clean (Around 100).  The staff is outstanding and very helpful.  We usually make all our reservations with Brandon and he is outstanding. Martha the manager is always very pleasant and helpful at check-out. The breakfast is nothing to special but it was completely free and the coffee was surprisingly good.  Great location near many restaurants and bars. Overall Clean and friendly place to stay.More</t>
   </si>
   <si>
+    <t>Kimberly P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r149822122-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1915,6 +2131,9 @@
     <t>My daughter and I stayed at the Extended Stay Arcadia for our long awaited trip to the Breeders Cup 2012.  The location was perfect for us, within walking distance to the track.  The staff was very friendly and helpful, calling cabs for us on numerous occasions and allowing us to check out later than usual due to a late flight.  The room was very comfortable, although it could have used a "deep cleaning."  I was disappointed to learn that this property is booked for the dates of Breeders Cup 2013, and have had to book another hotel in Pasadena.More</t>
   </si>
   <si>
+    <t>Pathfinder52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r138057906-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1942,6 +2161,9 @@
     <t>I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about...I checked in on a Friday evening to find that the bathroom was discussing. Food particles all in the fridge and drawers. Gobs of soap scum on the shower walls, soap ring where someone else shampoo bottle was, soap and tooth paste scum all over the sink faucet. And worst of all there was a feces stain in the desk chair. When I alerted the desk about it they sent in a maid with a bottle of Dial dish soap and a sponge. After a 30 second wipe she said she was done. There was no change to been seen by me. That Monday I spoke with the  Manager and told her about the situation and the chair. She said she would have the room "deep cleaned" and the chair replaced. When I got back that evening the only thing done was the bed was maid and the towels replaced. The chair was still there and the shower was still discusting. Once again I spoke with the manager and she stated that she looked at the room and seen nothing wrong. I had to litteraly drag her into the room where I pointed out the obvious stain in the chair and nasty soap trails in the bathroom including the sink. She was quick to say that she would have the sink replaced. Replaced? All it needed was a good cleaning. She and the cleaning lady cleaned the bathroom for about half an hour and when she was done came and asked me to take a look. The shower was clean and the sink was spotless. I told her that all it needed was a little elbow grease and it didn't need to be replaced. After they cleaned the remainder of the room. On top of that the internet is at a snails pace even at night when most are asleep. I averaged .37Mbps down and .17Mbps up in speed tests. I couldn't even use it for Outlook so I ended up tethering from my phone with 4G. So in closing I would have to say stay away from here. They clean with non-disinfecting dish soap and don't know the meaning of clean.More</t>
   </si>
   <si>
+    <t>twinsjnk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r135495114-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1966,6 +2188,9 @@
     <t>The hotel is in a great area, near by freeways &amp; restaurants. The staff is very helpful &amp; polite, my family &amp; I have always had a great experience. My pets were welcomed too. Very cozy room, so it is home away from home.More</t>
   </si>
   <si>
+    <t>Samuel K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r135030669-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -1991,6 +2216,9 @@
   </si>
   <si>
     <t>This is a great place to stay in perfect location too. My only problem is the Internet access. The speeds are pathetic. I could not sustain a 5 minute skype call any time of day or night any day of the week. Not even on a saturday afternoon when judging by the number of vehicles in the parking lot, most guests were out. I have even tried at 2AM to talk to my family on the other side of the world on Skype and still no success. This calls for improvement and then this would rank as a perfect choice for accommodation in ArcadiaMore</t>
+  </si>
+  <si>
+    <t>Sheri D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r132133982-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
@@ -2022,6 +2250,9 @@
 Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the...We were in town visiting a family member that is a patient of the City of Hope Hospital.  It was important that we were able to check in early to get to the hospital and not have to leave all of our luggage in the car.  We were told EARLY check-in was not a problem.  When we arrive at 1pm ... we were informed our room would not be ready until around 4pm... so off to the hospital we went will all our luggage left in the car.... ! Started checking for any other Hotel in the area that would be able to help us... they were all full.  Who would know such a popular area....!  After our visit we arrived back at the hotel ready to take a hot shower.... The size of the room was good ... however, it was dirty and smell of smoke and animals.  We discovered the smell came from under the sink were the garbage had been left for .... days?  The shower and tub leaked all night and the air-conditioner fan was broken.  It seemed they were in the middle of remodeling and still renting rooms.... All the baseboards were missing in the halls and the air conditioner in the hall was broken as well hanging off the wall... I guess one of the important things to me besides the poor quality was security... Each night we returned after a long day the back entrance was propped open with a rock.   What good is the key pad if your door is left open..... Again, checked if there was any other places within a few miles with rooms, that could sleep safely the kids and I .. that was a NO&gt;... We decided to make the best of it, ... and ask for more towels... which we had to bring back the dirty towels to get  (room service?) .... not once did we see room service.  Although the last day we were awoken by talking and laughing and loud hammering in the hallway ... this went on all morning.  We thought RooM ServicE?  No, they decided to replace the baseboards... It just wasn't a good week for that hotel.... We were happy to pack up say goodbye and head for home.More</t>
   </si>
   <si>
+    <t>SKSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r131501629-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -2041,6 +2272,9 @@
   </si>
   <si>
     <t>In the midst of a remodel, so some sketchy carpet stains,abundant trash &amp; cigarette butts (for days) in the parking lot and by the entrance. A real shocker was NO SHAMPOO is provided, and NO HAIR DRYER!( I have always considered these staples). There is a toaster, microwave, fridge, sink, dishes &amp; pots &amp; pans and iron/board. The "kitchen" was not yet remodeled, so a big burn mark on counter, and the fridge hummed loudly. Not a lot of attention to detail cleaning, obviously with sticky smudges on nightstand, curly hairs trapped in corners &amp; very dusty lamps--some that didn't work. Another "different" surprise was NO FREE DAILY MAID SERVICE, unless you are there 5 days. (You have to take your towels to the front desk if you want new ones. ). They advertise a "grab &amp; go" breakfast with muffins, but they didn't have muffins the 3 days I was there. On the positive side: the staff were all very nice and helpful. My first "no smoking" room had obviously had smokers, and I had no trouble getting a new room within 10 minutes.I felt safe about the area, and leaving my car in the parking lot.  All in all, it was worth what I paid for it, but I still think it should have had shampoo and a hair dryer.More</t>
+  </si>
+  <si>
+    <t>William J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d86377-r130988702-Extended_Stay_America_Los_Angeles_Arcadia-Arcadia_California.html</t>
@@ -2563,43 +2797,47 @@
       <c r="A2" t="n">
         <v>36272</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2615,56 +2853,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36272</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2680,56 +2922,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36272</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>12358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2747,56 +2993,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36272</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2808,56 +3058,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36272</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2869,56 +3123,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36272</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2936,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36272</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3007,56 +3269,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36272</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3078,56 +3344,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36272</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3141,56 +3411,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36272</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3212,47 +3486,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36272</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -3269,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36272</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3330,56 +3612,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36272</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3401,56 +3687,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36272</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3472,56 +3762,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36272</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3539,56 +3833,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36272</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>415</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3610,56 +3908,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36272</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3677,56 +3979,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36272</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3738,56 +4044,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36272</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>26596</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3809,56 +4119,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36272</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3874,56 +4188,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36272</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3939,56 +4257,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36272</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>3062</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4004,56 +4326,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36272</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -4075,56 +4401,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36272</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146231</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4146,56 +4476,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36272</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4209,50 +4543,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36272</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4272,50 +4610,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36272</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4335,50 +4677,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36272</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>9683</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4392,50 +4738,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36272</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146234</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4453,50 +4803,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36272</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>16921</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4514,56 +4868,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36272</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4579,56 +4937,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36272</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4646,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="X33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36272</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>339</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4713,56 +5079,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36272</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4774,47 +5144,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36272</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -4831,56 +5205,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36272</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>366</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4892,56 +5270,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="X37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36272</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>376</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="K38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4961,50 +5343,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36272</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C39" t="s">
+        <v>384</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5024,41 +5410,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36272</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>22683</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5077,50 +5467,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36272</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>397</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="J41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="L41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5138,56 +5532,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36272</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5203,56 +5601,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="X42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36272</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>417</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="O43" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5264,56 +5666,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36272</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>426</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5333,50 +5739,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36272</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>6834</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5390,47 +5800,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="X45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="Y45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36272</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>444</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="K46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5457,47 +5871,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="X46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="Y46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36272</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>453</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5524,47 +5942,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="X47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="Y47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36272</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>462</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="K48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5591,47 +6013,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="X48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="Y48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36272</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
@@ -5658,56 +6084,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="X49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="Y49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36272</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>477</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="J50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5725,47 +6155,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="X50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36272</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>13321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>487</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -5792,56 +6226,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="X51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36272</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>496</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5853,47 +6291,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="X52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="Y52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36272</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>506</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5920,47 +6362,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="X53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="Y53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36272</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>515</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="J54" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5987,56 +6433,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="X54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="Y54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36272</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146251</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="J55" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="K55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6058,56 +6508,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="X55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="Y55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36272</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146252</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="K56" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="L56" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6129,47 +6583,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="Y56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36272</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>542</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="J57" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
@@ -6186,56 +6644,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X57" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="Y57" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36272</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146254</v>
+      </c>
+      <c r="C58" t="s">
+        <v>551</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="L58" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6249,50 +6711,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36272</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>529</v>
+      </c>
+      <c r="C59" t="s">
+        <v>558</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="J59" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="K59" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="L59" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6306,50 +6772,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36272</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146255</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="J60" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="K60" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="L60" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6371,47 +6841,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="X60" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="Y60" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36272</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>576</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="J61" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="K61" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="L61" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
@@ -6438,56 +6912,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="X61" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="Y61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36272</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>585</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="J62" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="K62" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="L62" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6509,56 +6987,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="X62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="Y62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36272</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146258</v>
+      </c>
+      <c r="C63" t="s">
+        <v>595</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="J63" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="K63" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="L63" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="O63" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6580,47 +7062,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="X63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="Y63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36272</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>26891</v>
+      </c>
+      <c r="C64" t="s">
+        <v>605</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="J64" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="K64" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="L64" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6647,56 +7133,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="X64" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="Y64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36272</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>10897</v>
+      </c>
+      <c r="C65" t="s">
+        <v>614</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="J65" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="K65" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="L65" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6718,56 +7208,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="X65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="Y65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36272</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146259</v>
+      </c>
+      <c r="C66" t="s">
+        <v>624</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="J66" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="K66" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="L66" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="O66" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6789,56 +7283,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="X66" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="Y66" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36272</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146260</v>
+      </c>
+      <c r="C67" t="s">
+        <v>634</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="J67" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="K67" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="L67" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="O67" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6860,56 +7358,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="X67" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="Y67" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36272</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>5003</v>
+      </c>
+      <c r="C68" t="s">
+        <v>643</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="J68" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="K68" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="L68" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="O68" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6931,56 +7433,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="X68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="Y68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36272</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>96358</v>
+      </c>
+      <c r="C69" t="s">
+        <v>653</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="J69" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="K69" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="L69" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="O69" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7002,56 +7508,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="X69" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="Y69" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36272</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>49222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>662</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="J70" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="K70" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="L70" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7073,56 +7583,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="X70" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="Y70" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36272</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>670</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="L71" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="O71" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7144,56 +7658,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="X71" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="Y71" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36272</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>13965</v>
+      </c>
+      <c r="C72" t="s">
+        <v>680</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="J72" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="K72" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="L72" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7211,56 +7729,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="X72" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="Y72" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36272</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>35122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>687</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="J73" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="K73" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="L73" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7282,56 +7804,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X73" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y73" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36272</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146262</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="J74" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="L74" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="O74" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7353,47 +7879,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="X74" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="Y74" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36272</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146263</v>
+      </c>
+      <c r="C75" t="s">
+        <v>707</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="J75" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="K75" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="L75" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7420,56 +7950,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="X75" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="Y75" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36272</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>31840</v>
+      </c>
+      <c r="C76" t="s">
+        <v>716</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="K76" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="L76" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="O76" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7481,56 +8015,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="X76" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="Y76" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36272</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>98819</v>
+      </c>
+      <c r="C77" t="s">
+        <v>726</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="J77" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="K77" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="L77" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7552,56 +8090,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="X77" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="Y77" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36272</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146264</v>
+      </c>
+      <c r="C78" t="s">
+        <v>736</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="J78" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="K78" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="L78" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7623,56 +8165,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="X78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="Y78" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36272</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>466</v>
+      </c>
+      <c r="C79" t="s">
+        <v>744</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="J79" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="K79" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="L79" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="O79" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7694,13 +8240,13 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="X79" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="Y79" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_251.xlsx
@@ -2798,7 +2798,7 @@
         <v>36272</v>
       </c>
       <c r="B2" t="n">
-        <v>146212</v>
+        <v>177540</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2867,7 +2867,7 @@
         <v>36272</v>
       </c>
       <c r="B3" t="n">
-        <v>146213</v>
+        <v>177541</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3007,7 +3007,7 @@
         <v>36272</v>
       </c>
       <c r="B5" t="n">
-        <v>146214</v>
+        <v>177542</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3072,7 +3072,7 @@
         <v>36272</v>
       </c>
       <c r="B6" t="n">
-        <v>146215</v>
+        <v>177543</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -3137,7 +3137,7 @@
         <v>36272</v>
       </c>
       <c r="B7" t="n">
-        <v>146216</v>
+        <v>177544</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -3208,7 +3208,7 @@
         <v>36272</v>
       </c>
       <c r="B8" t="n">
-        <v>146217</v>
+        <v>177545</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -3283,7 +3283,7 @@
         <v>36272</v>
       </c>
       <c r="B9" t="n">
-        <v>146218</v>
+        <v>177546</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -3358,7 +3358,7 @@
         <v>36272</v>
       </c>
       <c r="B10" t="n">
-        <v>146219</v>
+        <v>177547</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -3425,7 +3425,7 @@
         <v>36272</v>
       </c>
       <c r="B11" t="n">
-        <v>146220</v>
+        <v>177548</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -3500,7 +3500,7 @@
         <v>36272</v>
       </c>
       <c r="B12" t="n">
-        <v>146221</v>
+        <v>177549</v>
       </c>
       <c r="C12" t="s">
         <v>143</v>
@@ -3561,7 +3561,7 @@
         <v>36272</v>
       </c>
       <c r="B13" t="n">
-        <v>146222</v>
+        <v>177550</v>
       </c>
       <c r="C13" t="s">
         <v>152</v>
@@ -3626,7 +3626,7 @@
         <v>36272</v>
       </c>
       <c r="B14" t="n">
-        <v>146223</v>
+        <v>177551</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
@@ -3701,7 +3701,7 @@
         <v>36272</v>
       </c>
       <c r="B15" t="n">
-        <v>146224</v>
+        <v>177552</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3776,7 +3776,7 @@
         <v>36272</v>
       </c>
       <c r="B16" t="n">
-        <v>146225</v>
+        <v>177553</v>
       </c>
       <c r="C16" t="s">
         <v>181</v>
@@ -3922,7 +3922,7 @@
         <v>36272</v>
       </c>
       <c r="B18" t="n">
-        <v>146226</v>
+        <v>177554</v>
       </c>
       <c r="C18" t="s">
         <v>201</v>
@@ -3993,7 +3993,7 @@
         <v>36272</v>
       </c>
       <c r="B19" t="n">
-        <v>146227</v>
+        <v>177555</v>
       </c>
       <c r="C19" t="s">
         <v>210</v>
@@ -4133,7 +4133,7 @@
         <v>36272</v>
       </c>
       <c r="B21" t="n">
-        <v>146228</v>
+        <v>177556</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4202,7 +4202,7 @@
         <v>36272</v>
       </c>
       <c r="B22" t="n">
-        <v>146229</v>
+        <v>177557</v>
       </c>
       <c r="C22" t="s">
         <v>238</v>
@@ -4340,7 +4340,7 @@
         <v>36272</v>
       </c>
       <c r="B24" t="n">
-        <v>146230</v>
+        <v>177558</v>
       </c>
       <c r="C24" t="s">
         <v>257</v>
@@ -4415,7 +4415,7 @@
         <v>36272</v>
       </c>
       <c r="B25" t="n">
-        <v>146231</v>
+        <v>177559</v>
       </c>
       <c r="C25" t="s">
         <v>266</v>
@@ -4490,7 +4490,7 @@
         <v>36272</v>
       </c>
       <c r="B26" t="n">
-        <v>146232</v>
+        <v>177560</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -4551,7 +4551,7 @@
         <v>36272</v>
       </c>
       <c r="B27" t="n">
-        <v>146233</v>
+        <v>177561</v>
       </c>
       <c r="C27" t="s">
         <v>282</v>
@@ -4746,7 +4746,7 @@
         <v>36272</v>
       </c>
       <c r="B30" t="n">
-        <v>146234</v>
+        <v>177562</v>
       </c>
       <c r="C30" t="s">
         <v>302</v>
@@ -4951,7 +4951,7 @@
         <v>36272</v>
       </c>
       <c r="B33" t="n">
-        <v>146235</v>
+        <v>177563</v>
       </c>
       <c r="C33" t="s">
         <v>330</v>
@@ -5022,7 +5022,7 @@
         <v>36272</v>
       </c>
       <c r="B34" t="n">
-        <v>146236</v>
+        <v>177564</v>
       </c>
       <c r="C34" t="s">
         <v>339</v>
@@ -5093,7 +5093,7 @@
         <v>36272</v>
       </c>
       <c r="B35" t="n">
-        <v>146237</v>
+        <v>177565</v>
       </c>
       <c r="C35" t="s">
         <v>349</v>
@@ -5158,7 +5158,7 @@
         <v>36272</v>
       </c>
       <c r="B36" t="n">
-        <v>146238</v>
+        <v>177566</v>
       </c>
       <c r="C36" t="s">
         <v>359</v>
@@ -5219,7 +5219,7 @@
         <v>36272</v>
       </c>
       <c r="B37" t="n">
-        <v>146239</v>
+        <v>177567</v>
       </c>
       <c r="C37" t="s">
         <v>366</v>
@@ -5284,7 +5284,7 @@
         <v>36272</v>
       </c>
       <c r="B38" t="n">
-        <v>146240</v>
+        <v>177568</v>
       </c>
       <c r="C38" t="s">
         <v>376</v>
@@ -5475,7 +5475,7 @@
         <v>36272</v>
       </c>
       <c r="B41" t="n">
-        <v>146241</v>
+        <v>177569</v>
       </c>
       <c r="C41" t="s">
         <v>397</v>
@@ -5546,7 +5546,7 @@
         <v>36272</v>
       </c>
       <c r="B42" t="n">
-        <v>146242</v>
+        <v>177570</v>
       </c>
       <c r="C42" t="s">
         <v>407</v>
@@ -5615,7 +5615,7 @@
         <v>36272</v>
       </c>
       <c r="B43" t="n">
-        <v>146243</v>
+        <v>177571</v>
       </c>
       <c r="C43" t="s">
         <v>417</v>
@@ -5680,7 +5680,7 @@
         <v>36272</v>
       </c>
       <c r="B44" t="n">
-        <v>146244</v>
+        <v>177572</v>
       </c>
       <c r="C44" t="s">
         <v>426</v>
@@ -5814,7 +5814,7 @@
         <v>36272</v>
       </c>
       <c r="B46" t="n">
-        <v>146245</v>
+        <v>177573</v>
       </c>
       <c r="C46" t="s">
         <v>444</v>
@@ -5885,7 +5885,7 @@
         <v>36272</v>
       </c>
       <c r="B47" t="n">
-        <v>146246</v>
+        <v>177574</v>
       </c>
       <c r="C47" t="s">
         <v>453</v>
@@ -5956,7 +5956,7 @@
         <v>36272</v>
       </c>
       <c r="B48" t="n">
-        <v>146247</v>
+        <v>177575</v>
       </c>
       <c r="C48" t="s">
         <v>462</v>
@@ -6240,7 +6240,7 @@
         <v>36272</v>
       </c>
       <c r="B52" t="n">
-        <v>146248</v>
+        <v>177576</v>
       </c>
       <c r="C52" t="s">
         <v>496</v>
@@ -6305,7 +6305,7 @@
         <v>36272</v>
       </c>
       <c r="B53" t="n">
-        <v>146249</v>
+        <v>177577</v>
       </c>
       <c r="C53" t="s">
         <v>506</v>
@@ -6376,7 +6376,7 @@
         <v>36272</v>
       </c>
       <c r="B54" t="n">
-        <v>146250</v>
+        <v>177578</v>
       </c>
       <c r="C54" t="s">
         <v>515</v>
@@ -6447,7 +6447,7 @@
         <v>36272</v>
       </c>
       <c r="B55" t="n">
-        <v>146251</v>
+        <v>177579</v>
       </c>
       <c r="C55" t="s">
         <v>524</v>
@@ -6522,7 +6522,7 @@
         <v>36272</v>
       </c>
       <c r="B56" t="n">
-        <v>146252</v>
+        <v>177580</v>
       </c>
       <c r="C56" t="s">
         <v>532</v>
@@ -6597,7 +6597,7 @@
         <v>36272</v>
       </c>
       <c r="B57" t="n">
-        <v>146253</v>
+        <v>177581</v>
       </c>
       <c r="C57" t="s">
         <v>542</v>
@@ -6658,7 +6658,7 @@
         <v>36272</v>
       </c>
       <c r="B58" t="n">
-        <v>146254</v>
+        <v>177582</v>
       </c>
       <c r="C58" t="s">
         <v>551</v>
@@ -6780,7 +6780,7 @@
         <v>36272</v>
       </c>
       <c r="B60" t="n">
-        <v>146255</v>
+        <v>177583</v>
       </c>
       <c r="C60" t="s">
         <v>566</v>
@@ -6855,7 +6855,7 @@
         <v>36272</v>
       </c>
       <c r="B61" t="n">
-        <v>146256</v>
+        <v>177584</v>
       </c>
       <c r="C61" t="s">
         <v>576</v>
@@ -6926,7 +6926,7 @@
         <v>36272</v>
       </c>
       <c r="B62" t="n">
-        <v>146257</v>
+        <v>177585</v>
       </c>
       <c r="C62" t="s">
         <v>585</v>
@@ -7001,7 +7001,7 @@
         <v>36272</v>
       </c>
       <c r="B63" t="n">
-        <v>146258</v>
+        <v>177586</v>
       </c>
       <c r="C63" t="s">
         <v>595</v>
@@ -7222,7 +7222,7 @@
         <v>36272</v>
       </c>
       <c r="B66" t="n">
-        <v>146259</v>
+        <v>177587</v>
       </c>
       <c r="C66" t="s">
         <v>624</v>
@@ -7297,7 +7297,7 @@
         <v>36272</v>
       </c>
       <c r="B67" t="n">
-        <v>146260</v>
+        <v>177588</v>
       </c>
       <c r="C67" t="s">
         <v>634</v>
@@ -7597,7 +7597,7 @@
         <v>36272</v>
       </c>
       <c r="B71" t="n">
-        <v>146261</v>
+        <v>177589</v>
       </c>
       <c r="C71" t="s">
         <v>670</v>
@@ -7818,7 +7818,7 @@
         <v>36272</v>
       </c>
       <c r="B74" t="n">
-        <v>146262</v>
+        <v>177590</v>
       </c>
       <c r="C74" t="s">
         <v>697</v>
@@ -7893,7 +7893,7 @@
         <v>36272</v>
       </c>
       <c r="B75" t="n">
-        <v>146263</v>
+        <v>177591</v>
       </c>
       <c r="C75" t="s">
         <v>707</v>
@@ -8104,7 +8104,7 @@
         <v>36272</v>
       </c>
       <c r="B78" t="n">
-        <v>146264</v>
+        <v>177592</v>
       </c>
       <c r="C78" t="s">
         <v>736</v>
